--- a/feature/JR/20251204_JR追記_レシート印字項目一覧 (MC修正_2.xlsx
+++ b/feature/JR/20251204_JR追記_レシート印字項目一覧 (MC修正_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MediaRoot\src\kyoshizawa\kywiki\feature\JR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6991432C-5F85-472F-92F2-41BD40C416C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25A87CA1-E68A-44DC-A73B-620395F605CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{EBC1795E-BD59-4226-93D9-E2CD2852C343}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="4" xr2:uid="{EBC1795E-BD59-4226-93D9-E2CD2852C343}"/>
   </bookViews>
   <sheets>
     <sheet name="印字項目_売上票(251204)" sheetId="3" r:id="rId1"/>
@@ -23,8 +23,8 @@
     <sheet name="レシートサンプル(QR)" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'レシートサンプル(クレジット) '!$A$1:$H$39</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'レシートサンプル(交通系IC)'!$A$1:$N$28</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'レシートサンプル(クレジット) '!$A$1:$H$40</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'レシートサンプル(交通系IC)'!$A$1:$N$30</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="171">
   <si>
     <t>＜売上票＞</t>
     <rPh sb="1" eb="3">
@@ -1156,6 +1156,9 @@
   </si>
   <si>
     <t>同左</t>
+  </si>
+  <si>
+    <t>同左</t>
     <rPh sb="0" eb="1">
       <t>ドウ</t>
     </rPh>
@@ -1282,9 +1285,8 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>(transaction)
-credit -&gt; amount</t>
-    <phoneticPr fontId="1"/>
+    <t>(terminal)
+receipt_tax</t>
   </si>
   <si>
     <t>(terminal)
@@ -1341,12 +1343,68 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>(transaction)
+method</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>決済手段</t>
+    <rPh sb="0" eb="4">
+      <t>ケッサイシュダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(transaction)
+suica -&gt; card_no</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ない？
+suica -&gt; card_trans_number を追加</t>
+    <rPh sb="32" eb="34">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ない？
+suica -&gt; term_ident_id を追加</t>
+    <rPh sb="28" eb="30">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(transaction)
+amount</t>
+  </si>
+  <si>
+    <t>(transaction)
+amount</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>同左</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(transaction)
+suica -&gt; after_balance</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(transaction)
+suica -&gt; before_balance</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1428,6 +1486,15 @@
     </font>
     <font>
       <strike/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="游ゴシック"/>
@@ -1645,7 +1712,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1849,6 +1916,27 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3270,9 +3358,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2190003</xdr:colOff>
+      <xdr:colOff>2193813</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>4397982</xdr:rowOff>
+      <xdr:rowOff>4401792</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3333,7 +3421,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>2210496</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>4131384</xdr:rowOff>
+      <xdr:rowOff>4135194</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3392,7 +3480,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>2112120</xdr:colOff>
+      <xdr:colOff>2115930</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>4684059</xdr:rowOff>
     </xdr:to>
@@ -3451,7 +3539,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2118173</xdr:colOff>
+      <xdr:colOff>2114363</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>3656665</xdr:rowOff>
     </xdr:to>
@@ -3510,9 +3598,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2192133</xdr:colOff>
+      <xdr:colOff>2188323</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>5048019</xdr:rowOff>
+      <xdr:rowOff>5051829</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3573,7 +3661,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>2132224</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>168947</xdr:rowOff>
+      <xdr:rowOff>172757</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3907,9 +3995,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>2086082</xdr:colOff>
+      <xdr:colOff>2078462</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>4640306</xdr:rowOff>
+      <xdr:rowOff>4632686</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3957,9 +4045,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>2217154</xdr:colOff>
+      <xdr:colOff>2230489</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>3343732</xdr:rowOff>
+      <xdr:rowOff>3336112</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4007,9 +4095,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>2218951</xdr:colOff>
+      <xdr:colOff>2226571</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>4695264</xdr:rowOff>
+      <xdr:rowOff>4702884</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4066,9 +4154,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>2082925</xdr:colOff>
+      <xdr:colOff>2079115</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>54349</xdr:rowOff>
+      <xdr:rowOff>58159</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4125,9 +4213,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>2106893</xdr:colOff>
+      <xdr:colOff>2116418</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>3132231</xdr:rowOff>
+      <xdr:rowOff>3139851</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4184,9 +4272,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>2150160</xdr:colOff>
+      <xdr:colOff>2153970</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>3018863</xdr:rowOff>
+      <xdr:rowOff>3026483</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4232,6 +4320,81 @@
         </a:extLst>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>313764</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>123264</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>2151530</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>414618</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="正方形/長方形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5885AD79-5A92-F20E-38F2-0DD017E26B36}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20349882" y="6723529"/>
+          <a:ext cx="8628530" cy="4426324"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>処理未了と障害レシートは何が違う？</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>未了と同じでよければ 未了の欄を参照</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -6401,7 +6564,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C18F9DE7-D1AA-4B4C-96E4-A534B920B8E3}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="B4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
@@ -8140,10 +8303,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D99F92E6-1551-4213-B3D6-3CE3DEF48664}">
-  <dimension ref="A2:H38"/>
+  <dimension ref="A2:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A28" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A18" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -8222,570 +8385,594 @@
       <c r="H12" s="61"/>
     </row>
     <row r="13" spans="1:8" ht="36">
-      <c r="A13" s="25"/>
+      <c r="A13" s="66" t="s">
+        <v>144</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>106</v>
+        <v>162</v>
       </c>
       <c r="C13" s="62" t="s">
-        <v>130</v>
+        <v>161</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F13" s="61"/>
       <c r="G13" s="24" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H13" s="24" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="36">
       <c r="A14" s="25"/>
       <c r="B14" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" s="62" t="s">
+        <v>130</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="F14" s="61"/>
+      <c r="G14" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="H14" s="24" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="36">
+      <c r="A15" s="25"/>
+      <c r="B15" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C14" s="64" t="s">
-        <v>132</v>
-      </c>
-      <c r="D14" s="65" t="s">
-        <v>131</v>
-      </c>
-      <c r="E14" s="65" t="s">
-        <v>131</v>
-      </c>
-      <c r="F14" s="61"/>
-      <c r="G14" s="65" t="s">
-        <v>131</v>
-      </c>
-      <c r="H14" s="65" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="36">
-      <c r="A15" s="66" t="s">
-        <v>143</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="C15" s="64" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D15" s="65" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E15" s="65" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F15" s="61"/>
       <c r="G15" s="65" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H15" s="65" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="36">
-      <c r="A16" s="25"/>
+      <c r="A16" s="66" t="s">
+        <v>144</v>
+      </c>
       <c r="B16" s="2" t="s">
-        <v>108</v>
+        <v>145</v>
       </c>
       <c r="C16" s="64" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D16" s="65" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E16" s="65" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F16" s="61"/>
       <c r="G16" s="65" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H16" s="65" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="36">
       <c r="A17" s="25"/>
       <c r="B17" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C17" s="64" t="s">
         <v>134</v>
       </c>
       <c r="D17" s="65" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E17" s="65" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F17" s="61"/>
       <c r="G17" s="65" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H17" s="65" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="36">
       <c r="A18" s="25"/>
       <c r="B18" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C18" s="64" t="s">
         <v>135</v>
       </c>
       <c r="D18" s="65" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E18" s="65" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F18" s="61"/>
       <c r="G18" s="65" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H18" s="65" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="36">
       <c r="A19" s="25"/>
       <c r="B19" s="2" t="s">
-        <v>23</v>
+        <v>110</v>
       </c>
       <c r="C19" s="64" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D19" s="65" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E19" s="65" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F19" s="61"/>
       <c r="G19" s="65" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H19" s="65" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="36">
       <c r="A20" s="25"/>
       <c r="B20" s="2" t="s">
-        <v>111</v>
+        <v>23</v>
       </c>
       <c r="C20" s="64" t="s">
         <v>138</v>
       </c>
       <c r="D20" s="65" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E20" s="65" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F20" s="61"/>
       <c r="G20" s="65" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H20" s="65" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="36">
       <c r="A21" s="25"/>
       <c r="B21" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C21" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="C21" s="64" t="s">
         <v>139</v>
       </c>
-      <c r="D21" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="E21" s="24" t="s">
-        <v>131</v>
+      <c r="D21" s="65" t="s">
+        <v>132</v>
+      </c>
+      <c r="E21" s="65" t="s">
+        <v>132</v>
       </c>
       <c r="F21" s="61"/>
-      <c r="G21" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="H21" s="24" t="s">
-        <v>131</v>
+      <c r="G21" s="65" t="s">
+        <v>132</v>
+      </c>
+      <c r="H21" s="65" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="36">
       <c r="A22" s="25"/>
       <c r="B22" s="2" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
       <c r="C22" s="62" t="s">
         <v>140</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F22" s="61"/>
       <c r="G22" s="24" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H22" s="24" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="36">
       <c r="A23" s="25"/>
       <c r="B23" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C23" s="62" t="s">
         <v>141</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F23" s="61"/>
       <c r="G23" s="24" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H23" s="24" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="36">
       <c r="A24" s="25"/>
       <c r="B24" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C24" s="62" t="s">
         <v>142</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F24" s="61"/>
       <c r="G24" s="24" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H24" s="24" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="36">
       <c r="A25" s="25"/>
       <c r="B25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="62" t="s">
+        <v>143</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="F25" s="61"/>
+      <c r="G25" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="H25" s="24" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="36">
+      <c r="A26" s="25"/>
+      <c r="B26" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="64" t="s">
-        <v>138</v>
-      </c>
-      <c r="D25" s="65" t="s">
-        <v>131</v>
-      </c>
-      <c r="E25" s="65" t="s">
-        <v>131</v>
-      </c>
-      <c r="F25" s="61"/>
-      <c r="G25" s="65" t="s">
-        <v>131</v>
-      </c>
-      <c r="H25" s="65" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="36">
-      <c r="A26" s="66" t="s">
-        <v>143</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C26" s="68"/>
-      <c r="D26" s="61"/>
-      <c r="E26" s="61"/>
+      <c r="C26" s="64" t="s">
+        <v>139</v>
+      </c>
+      <c r="D26" s="65" t="s">
+        <v>132</v>
+      </c>
+      <c r="E26" s="65" t="s">
+        <v>132</v>
+      </c>
       <c r="F26" s="61"/>
-      <c r="G26" s="64" t="s">
+      <c r="G26" s="65" t="s">
+        <v>132</v>
+      </c>
+      <c r="H26" s="65" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="36">
+      <c r="A27" s="66" t="s">
+        <v>144</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="H26" s="64" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="36">
-      <c r="A27" s="25"/>
-      <c r="B27" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" s="62" t="s">
-        <v>145</v>
-      </c>
-      <c r="D27" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="E27" s="24" t="s">
-        <v>131</v>
-      </c>
+      <c r="C27" s="68"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
       <c r="F27" s="61"/>
-      <c r="G27" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="H27" s="24" t="s">
-        <v>131</v>
+      <c r="G27" s="64" t="s">
+        <v>159</v>
+      </c>
+      <c r="H27" s="64" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="36">
       <c r="A28" s="25"/>
       <c r="B28" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C28" s="62" t="s">
         <v>146</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E28" s="24" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F28" s="61"/>
       <c r="G28" s="24" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H28" s="24" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="36">
       <c r="A29" s="25"/>
       <c r="B29" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C29" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="62" t="s">
         <v>147</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E29" s="24" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F29" s="61"/>
       <c r="G29" s="24" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H29" s="24" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="36">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="25"/>
       <c r="B30" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="C30" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="D30" s="65" t="s">
-        <v>131</v>
-      </c>
-      <c r="E30" s="65" t="s">
-        <v>131</v>
+      <c r="D30" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="E30" s="24" t="s">
+        <v>132</v>
       </c>
       <c r="F30" s="61"/>
-      <c r="G30" s="65" t="s">
-        <v>131</v>
-      </c>
-      <c r="H30" s="65" t="s">
-        <v>131</v>
+      <c r="G30" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="H30" s="24" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="36">
       <c r="A31" s="25"/>
       <c r="B31" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C31" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="D31" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="E31" s="24" t="s">
-        <v>131</v>
+      <c r="D31" s="65" t="s">
+        <v>132</v>
+      </c>
+      <c r="E31" s="65" t="s">
+        <v>132</v>
       </c>
       <c r="F31" s="61"/>
-      <c r="G31" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="H31" s="24" t="s">
-        <v>131</v>
+      <c r="G31" s="65" t="s">
+        <v>132</v>
+      </c>
+      <c r="H31" s="65" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="36">
       <c r="A32" s="25"/>
       <c r="B32" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C32" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="C32" s="62" t="s">
         <v>150</v>
       </c>
-      <c r="D32" s="65" t="s">
-        <v>131</v>
-      </c>
-      <c r="E32" s="65" t="s">
-        <v>131</v>
+      <c r="D32" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="E32" s="24" t="s">
+        <v>132</v>
       </c>
       <c r="F32" s="61"/>
-      <c r="G32" s="65" t="s">
-        <v>131</v>
-      </c>
-      <c r="H32" s="65" t="s">
-        <v>131</v>
+      <c r="G32" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="H32" s="24" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="36">
       <c r="A33" s="25"/>
       <c r="B33" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C33" s="62" t="s">
+        <v>126</v>
+      </c>
+      <c r="C33" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="D33" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="E33" s="24" t="s">
-        <v>131</v>
+      <c r="D33" s="65" t="s">
+        <v>132</v>
+      </c>
+      <c r="E33" s="65" t="s">
+        <v>132</v>
       </c>
       <c r="F33" s="61"/>
-      <c r="G33" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="H33" s="24" t="s">
-        <v>131</v>
+      <c r="G33" s="65" t="s">
+        <v>132</v>
+      </c>
+      <c r="H33" s="65" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="36">
       <c r="A34" s="25"/>
       <c r="B34" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C34" s="62" t="s">
         <v>152</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E34" s="24" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F34" s="61"/>
       <c r="G34" s="24" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H34" s="24" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="36">
       <c r="A35" s="25"/>
       <c r="B35" s="2" t="s">
-        <v>42</v>
+        <v>128</v>
       </c>
       <c r="C35" s="62" t="s">
         <v>153</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E35" s="24" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F35" s="61"/>
       <c r="G35" s="24" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H35" s="24" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="36">
       <c r="A36" s="25"/>
       <c r="B36" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C36" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="D36" s="65" t="s">
-        <v>131</v>
-      </c>
-      <c r="E36" s="65" t="s">
-        <v>131</v>
+        <v>42</v>
+      </c>
+      <c r="C36" s="62" t="s">
+        <v>167</v>
+      </c>
+      <c r="D36" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="E36" s="24" t="s">
+        <v>132</v>
       </c>
       <c r="F36" s="61"/>
-      <c r="G36" s="65" t="s">
-        <v>131</v>
-      </c>
-      <c r="H36" s="65" t="s">
-        <v>131</v>
+      <c r="G36" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="H36" s="24" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="36">
       <c r="A37" s="25"/>
       <c r="B37" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C37" s="23" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D37" s="65" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E37" s="65" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F37" s="61"/>
       <c r="G37" s="65" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H37" s="65" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="54">
-      <c r="A38" s="66" t="s">
-        <v>143</v>
-      </c>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="36">
+      <c r="A38" s="25"/>
       <c r="B38" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C38" s="67"/>
-      <c r="D38" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="E38" s="65"/>
+        <v>115</v>
+      </c>
+      <c r="C38" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="D38" s="65" t="s">
+        <v>132</v>
+      </c>
+      <c r="E38" s="65" t="s">
+        <v>132</v>
+      </c>
       <c r="F38" s="61"/>
       <c r="G38" s="65" t="s">
-        <v>159</v>
-      </c>
-      <c r="H38" s="65"/>
+        <v>132</v>
+      </c>
+      <c r="H38" s="65" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="54">
+      <c r="A39" s="66" t="s">
+        <v>144</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C39" s="67"/>
+      <c r="D39" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="E39" s="65"/>
+      <c r="F39" s="61"/>
+      <c r="G39" s="65" t="s">
+        <v>160</v>
+      </c>
+      <c r="H39" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8801,10 +8988,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0631C08A-B6FE-4CE8-B2E6-FDDE4E54CA39}">
-  <dimension ref="A2:N28"/>
+  <dimension ref="A2:N30"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A6" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18:J18"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A14" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -8911,420 +9098,705 @@
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="B9" s="2" t="s">
+      <c r="A9" s="25"/>
+      <c r="B9" s="63" t="s">
         <v>118</v>
       </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="42"/>
-      <c r="N9" s="43"/>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="C9" s="63" t="s">
+        <v>129</v>
+      </c>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="69"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="69"/>
+      <c r="N9" s="70"/>
+    </row>
+    <row r="10" spans="1:14" ht="36">
+      <c r="A10" s="25" t="s">
+        <v>144</v>
+      </c>
       <c r="B10" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="42"/>
+        <v>162</v>
+      </c>
+      <c r="C10" s="62" t="s">
+        <v>161</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="G10" s="42" t="s">
+        <v>132</v>
+      </c>
       <c r="H10" s="43"/>
-      <c r="I10" s="42"/>
+      <c r="I10" s="42" t="s">
+        <v>132</v>
+      </c>
       <c r="J10" s="43"/>
       <c r="K10" s="42"/>
       <c r="L10" s="43"/>
       <c r="M10" s="42"/>
       <c r="N10" s="43"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" ht="36">
+      <c r="A11" s="25"/>
       <c r="B11" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" s="62" t="s">
+        <v>130</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="G11" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="H11" s="43"/>
+      <c r="I11" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="J11" s="43"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="43"/>
+    </row>
+    <row r="12" spans="1:14" ht="36">
+      <c r="A12" s="25"/>
+      <c r="B12" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="37"/>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G12" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H12" s="41"/>
+      <c r="I12" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="J12" s="41"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="41"/>
+    </row>
+    <row r="13" spans="1:14" ht="36">
+      <c r="A13" s="66" t="s">
+        <v>144</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C13" s="64" t="s">
+        <v>137</v>
+      </c>
+      <c r="D13" s="65" t="s">
+        <v>132</v>
+      </c>
+      <c r="E13" s="65" t="s">
+        <v>132</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G13" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H13" s="41"/>
+      <c r="I13" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="J13" s="41"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="41"/>
+    </row>
+    <row r="14" spans="1:14" ht="36">
+      <c r="A14" s="25"/>
+      <c r="B14" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="37"/>
-      <c r="M12" s="35"/>
-      <c r="N12" s="37"/>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="B13" s="2" t="s">
+      <c r="C14" s="64" t="s">
+        <v>134</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G14" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H14" s="41"/>
+      <c r="I14" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="J14" s="41"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="41"/>
+    </row>
+    <row r="15" spans="1:14" ht="36">
+      <c r="A15" s="25"/>
+      <c r="B15" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="37"/>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="B14" s="2" t="s">
+      <c r="C15" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G15" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H15" s="41"/>
+      <c r="I15" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="J15" s="41"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="41"/>
+    </row>
+    <row r="16" spans="1:14" ht="36">
+      <c r="A16" s="25"/>
+      <c r="B16" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="37"/>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="B15" s="2" t="s">
+      <c r="C16" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G16" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H16" s="41"/>
+      <c r="I16" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="J16" s="41"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="41"/>
+    </row>
+    <row r="17" spans="1:14" ht="36">
+      <c r="A17" s="25"/>
+      <c r="B17" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="37"/>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="B16" s="2" t="s">
+      <c r="C17" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G17" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H17" s="41"/>
+      <c r="I17" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="J17" s="41"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="41"/>
+    </row>
+    <row r="18" spans="1:14" ht="36">
+      <c r="A18" s="25"/>
+      <c r="B18" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="37"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="37"/>
-    </row>
-    <row r="17" spans="2:14">
-      <c r="B17" s="2" t="s">
+      <c r="C18" s="64" t="s">
+        <v>139</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G18" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H18" s="41"/>
+      <c r="I18" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="J18" s="41"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="41"/>
+    </row>
+    <row r="19" spans="1:14" ht="36">
+      <c r="A19" s="25"/>
+      <c r="B19" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="42"/>
-      <c r="N17" s="43"/>
-    </row>
-    <row r="18" spans="2:14">
-      <c r="B18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="42"/>
-      <c r="N18" s="43"/>
-    </row>
-    <row r="19" spans="2:14">
-      <c r="B19" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="42"/>
+      <c r="C19" s="62" t="s">
+        <v>140</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="F19" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="G19" s="42" t="s">
+        <v>132</v>
+      </c>
       <c r="H19" s="43"/>
-      <c r="I19" s="42"/>
+      <c r="I19" s="42" t="s">
+        <v>132</v>
+      </c>
       <c r="J19" s="43"/>
       <c r="K19" s="42"/>
       <c r="L19" s="43"/>
       <c r="M19" s="42"/>
       <c r="N19" s="43"/>
     </row>
-    <row r="20" spans="2:14">
+    <row r="20" spans="1:14" ht="36">
+      <c r="A20" s="25"/>
       <c r="B20" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="42"/>
+        <v>28</v>
+      </c>
+      <c r="C20" s="62" t="s">
+        <v>163</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="F20" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="G20" s="42" t="s">
+        <v>132</v>
+      </c>
       <c r="H20" s="43"/>
-      <c r="I20" s="42"/>
+      <c r="I20" s="42" t="s">
+        <v>132</v>
+      </c>
       <c r="J20" s="43"/>
       <c r="K20" s="42"/>
       <c r="L20" s="43"/>
       <c r="M20" s="42"/>
       <c r="N20" s="43"/>
     </row>
-    <row r="21" spans="2:14">
+    <row r="21" spans="1:14" ht="54">
+      <c r="A21" s="25"/>
       <c r="B21" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="37"/>
-      <c r="M21" s="35"/>
-      <c r="N21" s="37"/>
-    </row>
-    <row r="22" spans="2:14">
+        <v>119</v>
+      </c>
+      <c r="C21" s="75" t="s">
+        <v>164</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="G21" s="71"/>
+      <c r="H21" s="72"/>
+      <c r="I21" s="71"/>
+      <c r="J21" s="72"/>
+      <c r="K21" s="71"/>
+      <c r="L21" s="72"/>
+      <c r="M21" s="71"/>
+      <c r="N21" s="72"/>
+    </row>
+    <row r="22" spans="1:14" ht="42" customHeight="1">
+      <c r="A22" s="25"/>
       <c r="B22" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="42"/>
+        <v>113</v>
+      </c>
+      <c r="C22" s="75" t="s">
+        <v>165</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="F22" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="G22" s="42" t="s">
+        <v>132</v>
+      </c>
       <c r="H22" s="43"/>
-      <c r="I22" s="42"/>
+      <c r="I22" s="42" t="s">
+        <v>132</v>
+      </c>
       <c r="J22" s="43"/>
       <c r="K22" s="42"/>
       <c r="L22" s="43"/>
       <c r="M22" s="42"/>
       <c r="N22" s="43"/>
     </row>
-    <row r="23" spans="2:14">
+    <row r="23" spans="1:14" ht="36">
+      <c r="A23" s="25"/>
       <c r="B23" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="35"/>
+        <v>42</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="35" t="s">
+        <v>132</v>
+      </c>
       <c r="H23" s="37"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="37"/>
+      <c r="I23" s="71"/>
+      <c r="J23" s="72"/>
       <c r="K23" s="35"/>
       <c r="L23" s="37"/>
-      <c r="M23" s="35"/>
-      <c r="N23" s="37"/>
-    </row>
-    <row r="24" spans="2:14">
+      <c r="M23" s="71"/>
+      <c r="N23" s="72"/>
+    </row>
+    <row r="24" spans="1:14" ht="36">
+      <c r="A24" s="25"/>
       <c r="B24" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="37"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="37"/>
-      <c r="M24" s="35"/>
-      <c r="N24" s="37"/>
-    </row>
-    <row r="25" spans="2:14">
+        <v>43</v>
+      </c>
+      <c r="C24" s="62" t="s">
+        <v>167</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="F24" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="G24" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="H24" s="43"/>
+      <c r="I24" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="J24" s="43"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="42"/>
+      <c r="N24" s="43"/>
+    </row>
+    <row r="25" spans="1:14" ht="36">
+      <c r="A25" s="25"/>
       <c r="B25" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="35"/>
+        <v>114</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="D25" s="65" t="s">
+        <v>132</v>
+      </c>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="H25" s="37"/>
+      <c r="I25" s="35" t="s">
+        <v>132</v>
+      </c>
       <c r="J25" s="37"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="43"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="37"/>
       <c r="M25" s="35"/>
       <c r="N25" s="37"/>
     </row>
-    <row r="26" spans="2:14">
+    <row r="26" spans="1:14" ht="36">
+      <c r="A26" s="25"/>
       <c r="B26" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="35"/>
+        <v>115</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="35" t="s">
+        <v>131</v>
+      </c>
       <c r="H26" s="37"/>
+      <c r="I26" s="71"/>
+      <c r="J26" s="72"/>
       <c r="K26" s="35"/>
       <c r="L26" s="37"/>
-    </row>
-    <row r="27" spans="2:14">
+      <c r="M26" s="71"/>
+      <c r="N26" s="72"/>
+    </row>
+    <row r="27" spans="1:14" ht="36">
+      <c r="A27" s="25"/>
       <c r="B27" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="62" t="s">
+        <v>167</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="E27" s="61"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="42" t="s">
+        <v>166</v>
+      </c>
+      <c r="H27" s="43"/>
+      <c r="I27" s="71"/>
+      <c r="J27" s="72"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="71"/>
+      <c r="N27" s="72"/>
+    </row>
+    <row r="28" spans="1:14" ht="36">
+      <c r="A28" s="25"/>
+      <c r="B28" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="62" t="s">
+        <v>169</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="E28" s="62" t="s">
+        <v>169</v>
+      </c>
+      <c r="F28" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="G28" s="71"/>
+      <c r="H28" s="72"/>
+      <c r="I28" s="71"/>
+      <c r="J28" s="72"/>
+      <c r="K28" s="71"/>
+      <c r="L28" s="72"/>
+      <c r="M28" s="73"/>
+      <c r="N28" s="73"/>
+    </row>
+    <row r="29" spans="1:14" ht="36">
+      <c r="A29" s="25"/>
+      <c r="B29" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="43"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="37"/>
-      <c r="M27" s="42"/>
-      <c r="N27" s="43"/>
-    </row>
-    <row r="28" spans="2:14">
-      <c r="B28" s="2" t="s">
+      <c r="C29" s="61"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="62" t="s">
+        <v>167</v>
+      </c>
+      <c r="F29" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="G29" s="71"/>
+      <c r="H29" s="72"/>
+      <c r="I29" s="42" t="s">
+        <v>166</v>
+      </c>
+      <c r="J29" s="43"/>
+      <c r="K29" s="71"/>
+      <c r="L29" s="72"/>
+      <c r="M29" s="42" t="s">
+        <v>166</v>
+      </c>
+      <c r="N29" s="43"/>
+    </row>
+    <row r="30" spans="1:14" ht="43.8" customHeight="1">
+      <c r="A30" s="25"/>
+      <c r="B30" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="43"/>
-      <c r="I28" s="42"/>
-      <c r="J28" s="43"/>
-      <c r="K28" s="42"/>
-      <c r="L28" s="43"/>
-      <c r="M28" s="42"/>
-      <c r="N28" s="43"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="74" t="s">
+        <v>170</v>
+      </c>
+      <c r="H30" s="43"/>
+      <c r="I30" s="74" t="s">
+        <v>170</v>
+      </c>
+      <c r="J30" s="43"/>
+      <c r="K30" s="74" t="s">
+        <v>170</v>
+      </c>
+      <c r="L30" s="43"/>
+      <c r="M30" s="74" t="s">
+        <v>170</v>
+      </c>
+      <c r="N30" s="43"/>
     </row>
   </sheetData>
-  <mergeCells count="88">
+  <mergeCells count="93">
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:N26"/>
     <mergeCell ref="K27:L27"/>
     <mergeCell ref="M27:N27"/>
     <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M23:N23"/>
     <mergeCell ref="K24:L24"/>
     <mergeCell ref="M24:N24"/>
     <mergeCell ref="K25:L25"/>
     <mergeCell ref="M25:N25"/>
-    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="M20:N20"/>
     <mergeCell ref="K21:L21"/>
     <mergeCell ref="M21:N21"/>
     <mergeCell ref="K22:L22"/>
     <mergeCell ref="M22:N22"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M17:N17"/>
     <mergeCell ref="K18:L18"/>
     <mergeCell ref="M18:N18"/>
     <mergeCell ref="K19:L19"/>
     <mergeCell ref="M19:N19"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M14:N14"/>
     <mergeCell ref="K15:L15"/>
     <mergeCell ref="M15:N15"/>
     <mergeCell ref="K16:L16"/>
     <mergeCell ref="M16:N16"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
     <mergeCell ref="K12:L12"/>
     <mergeCell ref="M12:N12"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="M10:N10"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I26:J26"/>
     <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
     <mergeCell ref="I21:J21"/>
     <mergeCell ref="I22:J22"/>
     <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I28:J28"/>
     <mergeCell ref="I16:J16"/>
     <mergeCell ref="I17:J17"/>
     <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I10:J10"/>
     <mergeCell ref="I13:J13"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
     <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G23:H23"/>
     <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
     <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G29:H29"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G10:H10"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="M4:N4"/>
@@ -9348,8 +9820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B381323B-FCE1-4D49-A95C-E87D6921B120}">
   <dimension ref="A2:Q38"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S26" sqref="S26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>

--- a/feature/JR/20251204_JR追記_レシート印字項目一覧 (MC修正_2.xlsx
+++ b/feature/JR/20251204_JR追記_レシート印字項目一覧 (MC修正_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MediaRoot\src\kyoshizawa\kywiki\feature\JR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25A87CA1-E68A-44DC-A73B-620395F605CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67571115-8A03-4A6B-994B-8315A318AF4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="4" xr2:uid="{EBC1795E-BD59-4226-93D9-E2CD2852C343}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="6" xr2:uid="{EBC1795E-BD59-4226-93D9-E2CD2852C343}"/>
   </bookViews>
   <sheets>
     <sheet name="印字項目_売上票(251204)" sheetId="3" r:id="rId1"/>
@@ -24,7 +24,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'レシートサンプル(クレジット) '!$A$1:$H$40</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'レシートサンプル(交通系IC)'!$A$1:$N$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'レシートサンプル(交通系IC)'!$A$1:$N$31</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="176">
   <si>
     <t>＜売上票＞</t>
     <rPh sb="1" eb="3">
@@ -1397,6 +1397,42 @@
   <si>
     <t>(transaction)
 suica -&gt; before_balance</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(transaction)
+quicpay -&gt; card_no</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ない？
+(transaction)
+quicpay -&gt; slip_number</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ない？
+(transaction)
+quicpay -&gt; term_ident_id を追加</t>
+    <rPh sb="44" eb="46">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ない？
+suica -&gt; customer_card_no を追加</t>
+    <rPh sb="31" eb="33">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ない？
+quicpay -&gt; customer_card_no を追加</t>
+    <rPh sb="33" eb="35">
+      <t>ツイカ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1565,7 +1601,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1705,6 +1741,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1712,7 +1785,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1938,6 +2011,36 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4332,7 +4435,7 @@
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>2151530</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>414618</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4404,16 +4507,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>206188</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
+      <xdr:rowOff>172122</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>512088</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2495305</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>199561</xdr:rowOff>
+      <xdr:rowOff>173563</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4435,8 +4538,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3514725" y="895350"/>
-          <a:ext cx="2255163" cy="3193586"/>
+          <a:off x="4834217" y="844475"/>
+          <a:ext cx="2304357" cy="3139088"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4447,16 +4550,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>292100</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>126999</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>629582</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2646641</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>107647</xdr:rowOff>
+      <xdr:rowOff>98122</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4490,16 +4593,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>92075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>439063</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2454217</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4533,14 +4636,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>15875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>569257</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2574886</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>149225</xdr:rowOff>
     </xdr:to>
@@ -8305,8 +8408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D99F92E6-1551-4213-B3D6-3CE3DEF48664}">
   <dimension ref="A2:H39"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A18" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD16"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A3" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -8988,10 +9091,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0631C08A-B6FE-4CE8-B2E6-FDDE4E54CA39}">
-  <dimension ref="A2:N30"/>
+  <dimension ref="A2:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A14" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A16" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -9150,79 +9253,77 @@
       <c r="N10" s="43"/>
     </row>
     <row r="11" spans="1:14" ht="36">
-      <c r="A11" s="25"/>
+      <c r="A11" s="25" t="s">
+        <v>144</v>
+      </c>
       <c r="B11" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C11" s="62" t="s">
-        <v>130</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="E11" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="F11" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="G11" s="42" t="s">
-        <v>132</v>
-      </c>
-      <c r="H11" s="43"/>
-      <c r="I11" s="42" t="s">
-        <v>132</v>
-      </c>
-      <c r="J11" s="43"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="42"/>
-      <c r="N11" s="43"/>
+        <v>32</v>
+      </c>
+      <c r="C11" s="64" t="s">
+        <v>147</v>
+      </c>
+      <c r="D11" s="65" t="s">
+        <v>132</v>
+      </c>
+      <c r="E11" s="65" t="s">
+        <v>132</v>
+      </c>
+      <c r="F11" s="65" t="s">
+        <v>132</v>
+      </c>
+      <c r="G11" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H11" s="41"/>
+      <c r="I11" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="J11" s="41"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="41"/>
     </row>
     <row r="12" spans="1:14" ht="36">
       <c r="A12" s="25"/>
       <c r="B12" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" s="62" t="s">
+        <v>130</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="G12" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="H12" s="43"/>
+      <c r="I12" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="J12" s="43"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="43"/>
+    </row>
+    <row r="13" spans="1:14" ht="36">
+      <c r="A13" s="25"/>
+      <c r="B13" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C13" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="G12" s="40" t="s">
-        <v>132</v>
-      </c>
-      <c r="H12" s="41"/>
-      <c r="I12" s="40" t="s">
-        <v>132</v>
-      </c>
-      <c r="J12" s="41"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="40"/>
-      <c r="N12" s="41"/>
-    </row>
-    <row r="13" spans="1:14" ht="36">
-      <c r="A13" s="66" t="s">
-        <v>144</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C13" s="64" t="s">
-        <v>137</v>
-      </c>
-      <c r="D13" s="65" t="s">
-        <v>132</v>
-      </c>
-      <c r="E13" s="65" t="s">
+      <c r="D13" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>132</v>
       </c>
       <c r="F13" s="2" t="s">
@@ -9242,17 +9343,19 @@
       <c r="N13" s="41"/>
     </row>
     <row r="14" spans="1:14" ht="36">
-      <c r="A14" s="25"/>
+      <c r="A14" s="66" t="s">
+        <v>144</v>
+      </c>
       <c r="B14" s="2" t="s">
-        <v>108</v>
+        <v>145</v>
       </c>
       <c r="C14" s="64" t="s">
-        <v>134</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E14" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D14" s="65" t="s">
+        <v>132</v>
+      </c>
+      <c r="E14" s="65" t="s">
         <v>132</v>
       </c>
       <c r="F14" s="2" t="s">
@@ -9274,10 +9377,10 @@
     <row r="15" spans="1:14" ht="36">
       <c r="A15" s="25"/>
       <c r="B15" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>135</v>
+        <v>108</v>
+      </c>
+      <c r="C15" s="64" t="s">
+        <v>134</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>132</v>
@@ -9304,10 +9407,10 @@
     <row r="16" spans="1:14" ht="36">
       <c r="A16" s="25"/>
       <c r="B16" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>132</v>
@@ -9334,10 +9437,10 @@
     <row r="17" spans="1:14" ht="36">
       <c r="A17" s="25"/>
       <c r="B17" s="2" t="s">
-        <v>23</v>
+        <v>110</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>132</v>
@@ -9364,10 +9467,10 @@
     <row r="18" spans="1:14" ht="36">
       <c r="A18" s="25"/>
       <c r="B18" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C18" s="64" t="s">
-        <v>139</v>
+        <v>23</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>138</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>132</v>
@@ -9394,40 +9497,40 @@
     <row r="19" spans="1:14" ht="36">
       <c r="A19" s="25"/>
       <c r="B19" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C19" s="62" t="s">
-        <v>140</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="E19" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="F19" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="G19" s="42" t="s">
-        <v>132</v>
-      </c>
-      <c r="H19" s="43"/>
-      <c r="I19" s="42" t="s">
-        <v>132</v>
-      </c>
-      <c r="J19" s="43"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="43"/>
-      <c r="M19" s="42"/>
-      <c r="N19" s="43"/>
+        <v>111</v>
+      </c>
+      <c r="C19" s="64" t="s">
+        <v>139</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G19" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H19" s="41"/>
+      <c r="I19" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="J19" s="41"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="41"/>
     </row>
     <row r="20" spans="1:14" ht="36">
       <c r="A20" s="25"/>
       <c r="B20" s="2" t="s">
-        <v>28</v>
+        <v>112</v>
       </c>
       <c r="C20" s="62" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="D20" s="24" t="s">
         <v>132</v>
@@ -9454,36 +9557,40 @@
     <row r="21" spans="1:14" ht="54">
       <c r="A21" s="25"/>
       <c r="B21" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C21" s="75" t="s">
-        <v>164</v>
-      </c>
-      <c r="D21" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="E21" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="F21" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="G21" s="71"/>
-      <c r="H21" s="72"/>
-      <c r="I21" s="71"/>
-      <c r="J21" s="72"/>
-      <c r="K21" s="71"/>
-      <c r="L21" s="72"/>
-      <c r="M21" s="71"/>
-      <c r="N21" s="72"/>
-    </row>
-    <row r="22" spans="1:14" ht="42" customHeight="1">
+        <v>28</v>
+      </c>
+      <c r="C21" s="62" t="s">
+        <v>163</v>
+      </c>
+      <c r="D21" s="75" t="s">
+        <v>174</v>
+      </c>
+      <c r="E21" s="62" t="s">
+        <v>163</v>
+      </c>
+      <c r="F21" s="75" t="s">
+        <v>174</v>
+      </c>
+      <c r="G21" s="74" t="s">
+        <v>163</v>
+      </c>
+      <c r="H21" s="43"/>
+      <c r="I21" s="84" t="s">
+        <v>174</v>
+      </c>
+      <c r="J21" s="85"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="43"/>
+    </row>
+    <row r="22" spans="1:14" ht="54">
       <c r="A22" s="25"/>
       <c r="B22" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="C22" s="75" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D22" s="24" t="s">
         <v>132</v>
@@ -9494,310 +9601,339 @@
       <c r="F22" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="G22" s="42" t="s">
-        <v>132</v>
-      </c>
-      <c r="H22" s="43"/>
-      <c r="I22" s="42" t="s">
-        <v>132</v>
-      </c>
-      <c r="J22" s="43"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="43"/>
-      <c r="M22" s="42"/>
-      <c r="N22" s="43"/>
-    </row>
-    <row r="23" spans="1:14" ht="36">
+      <c r="G22" s="71"/>
+      <c r="H22" s="72"/>
+      <c r="I22" s="71"/>
+      <c r="J22" s="72"/>
+      <c r="K22" s="71"/>
+      <c r="L22" s="72"/>
+      <c r="M22" s="71"/>
+      <c r="N22" s="72"/>
+    </row>
+    <row r="23" spans="1:14" ht="42" customHeight="1">
       <c r="A23" s="25"/>
       <c r="B23" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E23" s="61"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="35" t="s">
-        <v>132</v>
-      </c>
-      <c r="H23" s="37"/>
-      <c r="I23" s="71"/>
-      <c r="J23" s="72"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="37"/>
-      <c r="M23" s="71"/>
-      <c r="N23" s="72"/>
+        <v>113</v>
+      </c>
+      <c r="C23" s="75" t="s">
+        <v>165</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="F23" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="G23" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="H23" s="43"/>
+      <c r="I23" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="J23" s="43"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="42"/>
+      <c r="N23" s="43"/>
     </row>
     <row r="24" spans="1:14" ht="36">
       <c r="A24" s="25"/>
       <c r="B24" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" s="62" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="D24" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="E24" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="F24" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="G24" s="42" t="s">
-        <v>132</v>
-      </c>
-      <c r="H24" s="43"/>
-      <c r="I24" s="42" t="s">
-        <v>132</v>
-      </c>
-      <c r="J24" s="43"/>
-      <c r="K24" s="42"/>
-      <c r="L24" s="43"/>
-      <c r="M24" s="42"/>
-      <c r="N24" s="43"/>
+      <c r="D24" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="H24" s="37"/>
+      <c r="I24" s="71"/>
+      <c r="J24" s="72"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="71"/>
+      <c r="N24" s="72"/>
     </row>
     <row r="25" spans="1:14" ht="36">
       <c r="A25" s="25"/>
       <c r="B25" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C25" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="D25" s="65" t="s">
-        <v>132</v>
-      </c>
-      <c r="E25" s="61"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="35" t="s">
-        <v>154</v>
-      </c>
-      <c r="H25" s="37"/>
-      <c r="I25" s="35" t="s">
-        <v>132</v>
-      </c>
-      <c r="J25" s="37"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="37"/>
-      <c r="M25" s="35"/>
-      <c r="N25" s="37"/>
+        <v>43</v>
+      </c>
+      <c r="C25" s="62" t="s">
+        <v>167</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="F25" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="G25" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="H25" s="43"/>
+      <c r="I25" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="J25" s="43"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="43"/>
     </row>
     <row r="26" spans="1:14" ht="36">
       <c r="A26" s="25"/>
       <c r="B26" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>168</v>
+        <v>155</v>
+      </c>
+      <c r="D26" s="65" t="s">
+        <v>132</v>
       </c>
       <c r="E26" s="61"/>
       <c r="F26" s="61"/>
       <c r="G26" s="35" t="s">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="H26" s="37"/>
-      <c r="I26" s="71"/>
-      <c r="J26" s="72"/>
+      <c r="I26" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="J26" s="37"/>
       <c r="K26" s="35"/>
       <c r="L26" s="37"/>
-      <c r="M26" s="71"/>
-      <c r="N26" s="72"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="37"/>
     </row>
     <row r="27" spans="1:14" ht="36">
       <c r="A27" s="25"/>
       <c r="B27" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C27" s="62" t="s">
+        <v>115</v>
+      </c>
+      <c r="C27" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="D27" s="24" t="s">
-        <v>132</v>
+      <c r="D27" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="E27" s="61"/>
       <c r="F27" s="61"/>
-      <c r="G27" s="42" t="s">
-        <v>166</v>
-      </c>
-      <c r="H27" s="43"/>
+      <c r="G27" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="H27" s="37"/>
       <c r="I27" s="71"/>
       <c r="J27" s="72"/>
-      <c r="K27" s="42"/>
-      <c r="L27" s="43"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="37"/>
       <c r="M27" s="71"/>
       <c r="N27" s="72"/>
     </row>
     <row r="28" spans="1:14" ht="36">
       <c r="A28" s="25"/>
       <c r="B28" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C28" s="62" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D28" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="E28" s="62" t="s">
-        <v>169</v>
-      </c>
-      <c r="F28" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="G28" s="71"/>
-      <c r="H28" s="72"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="42" t="s">
+        <v>166</v>
+      </c>
+      <c r="H28" s="43"/>
       <c r="I28" s="71"/>
       <c r="J28" s="72"/>
-      <c r="K28" s="71"/>
-      <c r="L28" s="72"/>
-      <c r="M28" s="73"/>
-      <c r="N28" s="73"/>
+      <c r="K28" s="42"/>
+      <c r="L28" s="43"/>
+      <c r="M28" s="71"/>
+      <c r="N28" s="72"/>
     </row>
     <row r="29" spans="1:14" ht="36">
       <c r="A29" s="25"/>
       <c r="B29" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C29" s="61"/>
-      <c r="D29" s="61"/>
+        <v>47</v>
+      </c>
+      <c r="C29" s="62" t="s">
+        <v>169</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>132</v>
+      </c>
       <c r="E29" s="62" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F29" s="24" t="s">
         <v>132</v>
       </c>
       <c r="G29" s="71"/>
       <c r="H29" s="72"/>
-      <c r="I29" s="42" t="s">
-        <v>166</v>
-      </c>
-      <c r="J29" s="43"/>
+      <c r="I29" s="71"/>
+      <c r="J29" s="72"/>
       <c r="K29" s="71"/>
       <c r="L29" s="72"/>
-      <c r="M29" s="42" t="s">
-        <v>166</v>
-      </c>
-      <c r="N29" s="43"/>
-    </row>
-    <row r="30" spans="1:14" ht="43.8" customHeight="1">
+      <c r="M29" s="73"/>
+      <c r="N29" s="73"/>
+    </row>
+    <row r="30" spans="1:14" ht="36">
       <c r="A30" s="25"/>
       <c r="B30" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C30" s="61"/>
       <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="74" t="s">
+      <c r="E30" s="62" t="s">
+        <v>167</v>
+      </c>
+      <c r="F30" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="G30" s="71"/>
+      <c r="H30" s="72"/>
+      <c r="I30" s="42" t="s">
+        <v>166</v>
+      </c>
+      <c r="J30" s="43"/>
+      <c r="K30" s="71"/>
+      <c r="L30" s="72"/>
+      <c r="M30" s="42" t="s">
+        <v>166</v>
+      </c>
+      <c r="N30" s="43"/>
+    </row>
+    <row r="31" spans="1:14" ht="43.8" customHeight="1">
+      <c r="A31" s="25"/>
+      <c r="B31" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C31" s="61"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="61"/>
+      <c r="G31" s="74" t="s">
         <v>170</v>
       </c>
-      <c r="H30" s="43"/>
-      <c r="I30" s="74" t="s">
+      <c r="H31" s="43"/>
+      <c r="I31" s="74" t="s">
         <v>170</v>
       </c>
-      <c r="J30" s="43"/>
-      <c r="K30" s="74" t="s">
+      <c r="J31" s="43"/>
+      <c r="K31" s="74" t="s">
         <v>170</v>
       </c>
-      <c r="L30" s="43"/>
-      <c r="M30" s="74" t="s">
+      <c r="L31" s="43"/>
+      <c r="M31" s="74" t="s">
         <v>170</v>
       </c>
-      <c r="N30" s="43"/>
+      <c r="N31" s="43"/>
     </row>
   </sheetData>
-  <mergeCells count="93">
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:N29"/>
+  <mergeCells count="96">
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
     <mergeCell ref="K30:L30"/>
     <mergeCell ref="M30:N30"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:N31"/>
     <mergeCell ref="K27:L27"/>
     <mergeCell ref="M27:N27"/>
     <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="K29:L29"/>
     <mergeCell ref="K24:L24"/>
     <mergeCell ref="M24:N24"/>
     <mergeCell ref="K25:L25"/>
     <mergeCell ref="M25:N25"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:N26"/>
     <mergeCell ref="K21:L21"/>
     <mergeCell ref="M21:N21"/>
     <mergeCell ref="K22:L22"/>
     <mergeCell ref="M22:N22"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M23:N23"/>
     <mergeCell ref="K18:L18"/>
     <mergeCell ref="M18:N18"/>
     <mergeCell ref="K19:L19"/>
     <mergeCell ref="M19:N19"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="M20:N20"/>
     <mergeCell ref="K15:L15"/>
     <mergeCell ref="M15:N15"/>
     <mergeCell ref="K16:L16"/>
     <mergeCell ref="M16:N16"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M17:N17"/>
     <mergeCell ref="K12:L12"/>
     <mergeCell ref="M12:N12"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="M13:N13"/>
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="M10:N10"/>
-    <mergeCell ref="I26:J26"/>
     <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I28:J28"/>
     <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I31:J31"/>
     <mergeCell ref="I22:J22"/>
     <mergeCell ref="I23:J23"/>
     <mergeCell ref="I24:J24"/>
     <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I29:J29"/>
     <mergeCell ref="I17:J17"/>
     <mergeCell ref="I18:J18"/>
     <mergeCell ref="I19:J19"/>
     <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I21:J21"/>
     <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I10:J10"/>
     <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="G21:H21"/>
     <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G30:H30"/>
     <mergeCell ref="G23:H23"/>
     <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G24:H24"/>
     <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G27:H27"/>
     <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G30:H30"/>
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G21:H21"/>
     <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G10:H10"/>
     <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G13:H13"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="M4:N4"/>
     <mergeCell ref="K5:L5"/>
@@ -9818,782 +9954,482 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B381323B-FCE1-4D49-A95C-E87D6921B120}">
-  <dimension ref="A2:Q38"/>
+  <dimension ref="A2:G40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S26" sqref="S26"/>
+    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="13.796875" customWidth="1"/>
+    <col min="2" max="2" width="13.796875" customWidth="1"/>
+    <col min="3" max="3" width="32.796875" customWidth="1"/>
+    <col min="4" max="4" width="33.3984375" customWidth="1"/>
+    <col min="5" max="5" width="34.796875" customWidth="1"/>
+    <col min="6" max="6" width="37.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17">
-      <c r="B2" s="53" t="s">
+    <row r="2" spans="3:6">
+      <c r="C2" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="53" t="s">
+      <c r="D2" s="53" t="s">
         <v>92</v>
       </c>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="53" t="s">
+      <c r="E2" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="53" t="s">
+      <c r="F2" s="76" t="s">
         <v>94</v>
       </c>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="55"/>
-    </row>
-    <row r="3" spans="2:17">
-      <c r="B3" s="56"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="57"/>
-      <c r="P3" s="57"/>
-      <c r="Q3" s="58"/>
-    </row>
-    <row r="4" spans="2:17">
-      <c r="B4" s="44"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="46"/>
-    </row>
-    <row r="5" spans="2:17">
-      <c r="B5" s="47"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="48"/>
-      <c r="P5" s="48"/>
-      <c r="Q5" s="49"/>
-    </row>
-    <row r="6" spans="2:17">
-      <c r="B6" s="47"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="48"/>
-      <c r="P6" s="48"/>
-      <c r="Q6" s="49"/>
-    </row>
-    <row r="7" spans="2:17">
-      <c r="B7" s="47"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="49"/>
-      <c r="N7" s="47"/>
-      <c r="O7" s="48"/>
-      <c r="P7" s="48"/>
-      <c r="Q7" s="49"/>
-    </row>
-    <row r="8" spans="2:17">
-      <c r="B8" s="47"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="48"/>
-      <c r="Q8" s="49"/>
-    </row>
-    <row r="9" spans="2:17">
-      <c r="B9" s="47"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="49"/>
-      <c r="N9" s="47"/>
-      <c r="O9" s="48"/>
-      <c r="P9" s="48"/>
-      <c r="Q9" s="49"/>
-    </row>
-    <row r="10" spans="2:17">
-      <c r="B10" s="47"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="48"/>
-      <c r="M10" s="49"/>
-      <c r="N10" s="47"/>
-      <c r="O10" s="48"/>
-      <c r="P10" s="48"/>
-      <c r="Q10" s="49"/>
-    </row>
-    <row r="11" spans="2:17">
-      <c r="B11" s="47"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="49"/>
-      <c r="N11" s="47"/>
-      <c r="O11" s="48"/>
-      <c r="P11" s="48"/>
-      <c r="Q11" s="49"/>
-    </row>
-    <row r="12" spans="2:17">
-      <c r="B12" s="47"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="49"/>
-      <c r="N12" s="47"/>
-      <c r="O12" s="48"/>
-      <c r="P12" s="48"/>
-      <c r="Q12" s="49"/>
-    </row>
-    <row r="13" spans="2:17">
-      <c r="B13" s="47"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="49"/>
-      <c r="N13" s="47"/>
-      <c r="O13" s="48"/>
-      <c r="P13" s="48"/>
-      <c r="Q13" s="49"/>
-    </row>
-    <row r="14" spans="2:17">
-      <c r="B14" s="47"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="49"/>
-      <c r="N14" s="47"/>
-      <c r="O14" s="48"/>
-      <c r="P14" s="48"/>
-      <c r="Q14" s="49"/>
-    </row>
-    <row r="15" spans="2:17">
-      <c r="B15" s="47"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="48"/>
-      <c r="M15" s="49"/>
-      <c r="N15" s="47"/>
-      <c r="O15" s="48"/>
-      <c r="P15" s="48"/>
-      <c r="Q15" s="49"/>
-    </row>
-    <row r="16" spans="2:17">
-      <c r="B16" s="47"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="48"/>
-      <c r="M16" s="49"/>
-      <c r="N16" s="47"/>
-      <c r="O16" s="48"/>
-      <c r="P16" s="48"/>
-      <c r="Q16" s="49"/>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="B17" s="47"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="48"/>
-      <c r="L17" s="48"/>
-      <c r="M17" s="49"/>
-      <c r="N17" s="47"/>
-      <c r="O17" s="48"/>
-      <c r="P17" s="48"/>
-      <c r="Q17" s="49"/>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="B18" s="47"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="47"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="48"/>
-      <c r="M18" s="49"/>
-      <c r="N18" s="47"/>
-      <c r="O18" s="48"/>
-      <c r="P18" s="48"/>
-      <c r="Q18" s="49"/>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="B19" s="47"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="48"/>
-      <c r="M19" s="49"/>
-      <c r="N19" s="47"/>
-      <c r="O19" s="48"/>
-      <c r="P19" s="48"/>
-      <c r="Q19" s="49"/>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="B20" s="50"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="50"/>
-      <c r="K20" s="51"/>
-      <c r="L20" s="51"/>
-      <c r="M20" s="52"/>
-      <c r="N20" s="50"/>
-      <c r="O20" s="51"/>
-      <c r="P20" s="51"/>
-      <c r="Q20" s="52"/>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="A22" t="s">
+    </row>
+    <row r="3" spans="3:6">
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="77"/>
+    </row>
+    <row r="4" spans="3:6">
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="78"/>
+    </row>
+    <row r="5" spans="3:6">
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="79"/>
+    </row>
+    <row r="6" spans="3:6">
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="79"/>
+    </row>
+    <row r="7" spans="3:6">
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="79"/>
+    </row>
+    <row r="8" spans="3:6">
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="79"/>
+    </row>
+    <row r="9" spans="3:6">
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="79"/>
+    </row>
+    <row r="10" spans="3:6">
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="79"/>
+    </row>
+    <row r="11" spans="3:6">
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="79"/>
+    </row>
+    <row r="12" spans="3:6">
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="79"/>
+    </row>
+    <row r="13" spans="3:6">
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="79"/>
+    </row>
+    <row r="14" spans="3:6">
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="79"/>
+    </row>
+    <row r="15" spans="3:6">
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="79"/>
+    </row>
+    <row r="16" spans="3:6">
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="79"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="79"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="79"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="79"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="80"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="F21" s="81"/>
+      <c r="G21" s="81"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="B22" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="A23" s="2" t="s">
+      <c r="F22" s="81"/>
+      <c r="G22" s="81"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="25"/>
+      <c r="B23" s="63" t="s">
         <v>118</v>
       </c>
-      <c r="B23" s="59"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="59"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="59"/>
-      <c r="J23" s="59"/>
-      <c r="K23" s="59"/>
-      <c r="L23" s="59"/>
-      <c r="M23" s="59"/>
-      <c r="N23" s="59"/>
-      <c r="O23" s="59"/>
-      <c r="P23" s="59"/>
-      <c r="Q23" s="59"/>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="A24" s="2" t="s">
+      <c r="C23" s="63" t="s">
+        <v>129</v>
+      </c>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+    </row>
+    <row r="24" spans="1:7" ht="36">
+      <c r="A24" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C24" s="62" t="s">
+        <v>161</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="F24" s="24" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="36">
+      <c r="A25" s="25"/>
+      <c r="B25" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B24" s="59"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="59"/>
-      <c r="I24" s="59"/>
-      <c r="J24" s="59"/>
-      <c r="K24" s="59"/>
-      <c r="L24" s="59"/>
-      <c r="M24" s="59"/>
-      <c r="N24" s="59"/>
-      <c r="O24" s="59"/>
-      <c r="P24" s="59"/>
-      <c r="Q24" s="59"/>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="A25" s="2" t="s">
+      <c r="C25" s="62" t="s">
+        <v>130</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="F25" s="24" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="36">
+      <c r="A26" s="25"/>
+      <c r="B26" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B25" s="60"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="60"/>
-      <c r="H25" s="60"/>
-      <c r="I25" s="60"/>
-      <c r="J25" s="60"/>
-      <c r="K25" s="60"/>
-      <c r="L25" s="60"/>
-      <c r="M25" s="60"/>
-      <c r="N25" s="60"/>
-      <c r="O25" s="60"/>
-      <c r="P25" s="60"/>
-      <c r="Q25" s="60"/>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="A26" s="2" t="s">
+      <c r="C26" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="36">
+      <c r="A27" s="66" t="s">
+        <v>144</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C27" s="64" t="s">
+        <v>137</v>
+      </c>
+      <c r="D27" s="65" t="s">
+        <v>132</v>
+      </c>
+      <c r="E27" s="65" t="s">
+        <v>132</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="36">
+      <c r="A28" s="25"/>
+      <c r="B28" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B26" s="60"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="60"/>
-      <c r="H26" s="60"/>
-      <c r="I26" s="60"/>
-      <c r="J26" s="60"/>
-      <c r="K26" s="60"/>
-      <c r="L26" s="60"/>
-      <c r="M26" s="60"/>
-      <c r="N26" s="60"/>
-      <c r="O26" s="60"/>
-      <c r="P26" s="60"/>
-      <c r="Q26" s="60"/>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="A27" s="2" t="s">
+      <c r="C28" s="64" t="s">
+        <v>134</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="36">
+      <c r="A29" s="25"/>
+      <c r="B29" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B27" s="60"/>
-      <c r="C27" s="60"/>
-      <c r="D27" s="60"/>
-      <c r="E27" s="60"/>
-      <c r="F27" s="60"/>
-      <c r="G27" s="60"/>
-      <c r="H27" s="60"/>
-      <c r="I27" s="60"/>
-      <c r="J27" s="60"/>
-      <c r="K27" s="60"/>
-      <c r="L27" s="60"/>
-      <c r="M27" s="60"/>
-      <c r="N27" s="60"/>
-      <c r="O27" s="60"/>
-      <c r="P27" s="60"/>
-      <c r="Q27" s="60"/>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="A28" s="2" t="s">
+      <c r="C29" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="36">
+      <c r="A30" s="25"/>
+      <c r="B30" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B28" s="60"/>
-      <c r="C28" s="60"/>
-      <c r="D28" s="60"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="60"/>
-      <c r="G28" s="60"/>
-      <c r="H28" s="60"/>
-      <c r="I28" s="60"/>
-      <c r="J28" s="60"/>
-      <c r="K28" s="60"/>
-      <c r="L28" s="60"/>
-      <c r="M28" s="60"/>
-      <c r="N28" s="60"/>
-      <c r="O28" s="60"/>
-      <c r="P28" s="60"/>
-      <c r="Q28" s="60"/>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="A29" s="2" t="s">
+      <c r="C30" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="36">
+      <c r="A31" s="25"/>
+      <c r="B31" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="60"/>
-      <c r="C29" s="60"/>
-      <c r="D29" s="60"/>
-      <c r="E29" s="60"/>
-      <c r="F29" s="60"/>
-      <c r="G29" s="60"/>
-      <c r="H29" s="60"/>
-      <c r="I29" s="60"/>
-      <c r="J29" s="60"/>
-      <c r="K29" s="60"/>
-      <c r="L29" s="60"/>
-      <c r="M29" s="60"/>
-      <c r="N29" s="60"/>
-      <c r="O29" s="60"/>
-      <c r="P29" s="60"/>
-      <c r="Q29" s="60"/>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="A30" s="2" t="s">
+      <c r="C31" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="36">
+      <c r="A32" s="25"/>
+      <c r="B32" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B30" s="60"/>
-      <c r="C30" s="60"/>
-      <c r="D30" s="60"/>
-      <c r="E30" s="60"/>
-      <c r="F30" s="60"/>
-      <c r="G30" s="60"/>
-      <c r="H30" s="60"/>
-      <c r="I30" s="60"/>
-      <c r="J30" s="60"/>
-      <c r="K30" s="60"/>
-      <c r="L30" s="60"/>
-      <c r="M30" s="60"/>
-      <c r="N30" s="60"/>
-      <c r="O30" s="60"/>
-      <c r="P30" s="60"/>
-      <c r="Q30" s="60"/>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="A31" s="2" t="s">
+      <c r="C32" s="64" t="s">
+        <v>139</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="36">
+      <c r="A33" s="25"/>
+      <c r="B33" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B31" s="59"/>
-      <c r="C31" s="59"/>
-      <c r="D31" s="59"/>
-      <c r="E31" s="59"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="59"/>
-      <c r="H31" s="59"/>
-      <c r="I31" s="59"/>
-      <c r="J31" s="59"/>
-      <c r="K31" s="59"/>
-      <c r="L31" s="59"/>
-      <c r="M31" s="59"/>
-      <c r="N31" s="59"/>
-      <c r="O31" s="59"/>
-      <c r="P31" s="59"/>
-      <c r="Q31" s="59"/>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="A32" s="2" t="s">
+      <c r="C33" s="62" t="s">
+        <v>140</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="E33" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="F33" s="24" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="36">
+      <c r="A34" s="25"/>
+      <c r="B34" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="59"/>
-      <c r="C32" s="59"/>
-      <c r="D32" s="59"/>
-      <c r="E32" s="59"/>
-      <c r="F32" s="59"/>
-      <c r="G32" s="59"/>
-      <c r="H32" s="59"/>
-      <c r="I32" s="59"/>
-      <c r="J32" s="59"/>
-      <c r="K32" s="59"/>
-      <c r="L32" s="59"/>
-      <c r="M32" s="59"/>
-      <c r="N32" s="59"/>
-      <c r="O32" s="59"/>
-      <c r="P32" s="59"/>
-      <c r="Q32" s="59"/>
-    </row>
-    <row r="33" spans="1:17">
-      <c r="A33" s="2" t="s">
+      <c r="C34" s="62" t="s">
+        <v>171</v>
+      </c>
+      <c r="D34" s="75" t="s">
+        <v>175</v>
+      </c>
+      <c r="E34" s="62" t="s">
+        <v>171</v>
+      </c>
+      <c r="F34" s="75" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="54">
+      <c r="A35" s="25"/>
+      <c r="B35" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B33" s="60"/>
-      <c r="C33" s="60"/>
-      <c r="D33" s="60"/>
-      <c r="E33" s="60"/>
-      <c r="F33" s="60"/>
-      <c r="G33" s="60"/>
-      <c r="H33" s="60"/>
-      <c r="I33" s="60"/>
-      <c r="J33" s="60"/>
-      <c r="K33" s="60"/>
-      <c r="L33" s="60"/>
-      <c r="M33" s="60"/>
-      <c r="N33" s="60"/>
-      <c r="O33" s="60"/>
-      <c r="P33" s="60"/>
-      <c r="Q33" s="60"/>
-    </row>
-    <row r="34" spans="1:17">
-      <c r="A34" s="2" t="s">
+      <c r="C35" s="82" t="s">
+        <v>172</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="36">
+      <c r="A36" s="25"/>
+      <c r="B36" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B34" s="59"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59"/>
-      <c r="E34" s="59"/>
-      <c r="F34" s="59"/>
-      <c r="G34" s="59"/>
-      <c r="H34" s="59"/>
-      <c r="I34" s="59"/>
-      <c r="J34" s="59"/>
-      <c r="K34" s="59"/>
-      <c r="L34" s="59"/>
-      <c r="M34" s="59"/>
-      <c r="N34" s="59"/>
-      <c r="O34" s="59"/>
-      <c r="P34" s="59"/>
-      <c r="Q34" s="59"/>
-    </row>
-    <row r="35" spans="1:17">
-      <c r="A35" s="2" t="s">
+      <c r="C36" s="62" t="s">
+        <v>147</v>
+      </c>
+      <c r="D36" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="E36" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="F36" s="24" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="54">
+      <c r="A37" s="25"/>
+      <c r="B37" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B35" s="60"/>
-      <c r="C35" s="60"/>
-      <c r="D35" s="60"/>
-      <c r="E35" s="60"/>
-      <c r="F35" s="60"/>
-      <c r="G35" s="60"/>
-      <c r="H35" s="60"/>
-      <c r="I35" s="60"/>
-      <c r="J35" s="60"/>
-      <c r="K35" s="60"/>
-      <c r="L35" s="60"/>
-      <c r="M35" s="60"/>
-      <c r="N35" s="60"/>
-      <c r="O35" s="60"/>
-      <c r="P35" s="60"/>
-      <c r="Q35" s="60"/>
-    </row>
-    <row r="36" spans="1:17">
-      <c r="A36" s="2" t="s">
+      <c r="C37" s="83" t="s">
+        <v>173</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="36">
+      <c r="A38" s="25"/>
+      <c r="B38" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B36" s="60"/>
-      <c r="C36" s="60"/>
-      <c r="D36" s="60"/>
-      <c r="E36" s="60"/>
-      <c r="F36" s="60"/>
-      <c r="G36" s="60"/>
-      <c r="H36" s="60"/>
-      <c r="I36" s="60"/>
-      <c r="J36" s="60"/>
-      <c r="K36" s="60"/>
-      <c r="L36" s="60"/>
-      <c r="M36" s="60"/>
-      <c r="N36" s="60"/>
-      <c r="O36" s="60"/>
-      <c r="P36" s="60"/>
-      <c r="Q36" s="60"/>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="A37" s="2" t="s">
+      <c r="C38" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E38" s="61"/>
+      <c r="F38" s="61"/>
+    </row>
+    <row r="39" spans="1:6" ht="36">
+      <c r="A39" s="25"/>
+      <c r="B39" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B37" s="59"/>
-      <c r="C37" s="59"/>
-      <c r="D37" s="59"/>
-      <c r="E37" s="59"/>
-      <c r="F37" s="59"/>
-      <c r="G37" s="59"/>
-      <c r="H37" s="59"/>
-      <c r="I37" s="59"/>
-      <c r="J37" s="59"/>
-      <c r="K37" s="59"/>
-      <c r="L37" s="59"/>
-      <c r="M37" s="59"/>
-      <c r="N37" s="59"/>
-      <c r="O37" s="59"/>
-      <c r="P37" s="59"/>
-      <c r="Q37" s="59"/>
-    </row>
-    <row r="38" spans="1:17">
-      <c r="A38" s="2" t="s">
+      <c r="C39" s="62" t="s">
+        <v>167</v>
+      </c>
+      <c r="D39" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="E39" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="F39" s="24" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="36">
+      <c r="A40" s="25"/>
+      <c r="B40" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B38" s="60"/>
-      <c r="C38" s="60"/>
-      <c r="D38" s="60"/>
-      <c r="E38" s="60"/>
-      <c r="F38" s="60"/>
-      <c r="G38" s="60"/>
-      <c r="H38" s="60"/>
-      <c r="I38" s="60"/>
-      <c r="J38" s="60"/>
-      <c r="K38" s="60"/>
-      <c r="L38" s="60"/>
-      <c r="M38" s="60"/>
-      <c r="N38" s="60"/>
-      <c r="O38" s="60"/>
-      <c r="P38" s="60"/>
-      <c r="Q38" s="60"/>
+      <c r="C40" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="D40" s="65" t="s">
+        <v>132</v>
+      </c>
+      <c r="E40" s="65" t="s">
+        <v>132</v>
+      </c>
+      <c r="F40" s="65" t="s">
+        <v>132</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="72">
-    <mergeCell ref="F38:I38"/>
-    <mergeCell ref="J38:M38"/>
-    <mergeCell ref="N38:Q38"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="J36:M36"/>
-    <mergeCell ref="N36:Q36"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="J37:M37"/>
-    <mergeCell ref="N37:Q37"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="J34:M34"/>
-    <mergeCell ref="N34:Q34"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="J35:M35"/>
-    <mergeCell ref="N35:Q35"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="J32:M32"/>
-    <mergeCell ref="N32:Q32"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="J33:M33"/>
-    <mergeCell ref="N33:Q33"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:M30"/>
-    <mergeCell ref="N30:Q30"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:M31"/>
-    <mergeCell ref="N31:Q31"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="N28:Q28"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:M29"/>
-    <mergeCell ref="N29:Q29"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:M23"/>
-    <mergeCell ref="N23:Q23"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:M24"/>
-    <mergeCell ref="N24:Q24"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="N25:Q25"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J26:M26"/>
-    <mergeCell ref="N26:Q26"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="J27:M27"/>
-    <mergeCell ref="N27:Q27"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="J4:M20"/>
-    <mergeCell ref="N4:Q20"/>
-    <mergeCell ref="B2:E3"/>
-    <mergeCell ref="F2:I3"/>
-    <mergeCell ref="B4:E20"/>
-    <mergeCell ref="F4:I20"/>
-    <mergeCell ref="J2:M3"/>
-    <mergeCell ref="N2:Q3"/>
+  <mergeCells count="8">
+    <mergeCell ref="E4:E20"/>
+    <mergeCell ref="F4:F20"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="C4:C20"/>
+    <mergeCell ref="D4:D20"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10608,8 +10444,8 @@
   </sheetPr>
   <dimension ref="B3:AH40"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M43" sqref="M43"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29:N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18"/>

--- a/feature/JR/20251204_JR追記_レシート印字項目一覧 (MC修正_2.xlsx
+++ b/feature/JR/20251204_JR追記_レシート印字項目一覧 (MC修正_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MediaRoot\src\kyoshizawa\kywiki\feature\JR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67571115-8A03-4A6B-994B-8315A318AF4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B903F46E-8B02-4BA6-917F-5F53C06AA1FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="6" xr2:uid="{EBC1795E-BD59-4226-93D9-E2CD2852C343}"/>
   </bookViews>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="176">
   <si>
     <t>＜売上票＞</t>
     <rPh sb="1" eb="3">
@@ -4759,8 +4759,8 @@
       <xdr:rowOff>173355</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>440055</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2460924</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>211856</xdr:rowOff>
     </xdr:to>
@@ -4808,14 +4808,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>205740</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>169545</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>447376</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2458720</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>211155</xdr:rowOff>
     </xdr:to>
@@ -4863,16 +4863,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>361315</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>20460</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>628607</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2645666</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>67785</xdr:rowOff>
+      <xdr:rowOff>56355</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4918,14 +4918,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>228105</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>20460</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>506192</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2536586</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>58260</xdr:rowOff>
     </xdr:to>
@@ -4973,16 +4973,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>215265</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>429044</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2453723</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>25735</xdr:rowOff>
+      <xdr:rowOff>18115</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5028,16 +5028,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>308115</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>201435</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>406959</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2416398</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>7460</xdr:rowOff>
+      <xdr:rowOff>16985</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5083,16 +5083,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>26</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>262891</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>388089</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2422293</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>103205</xdr:rowOff>
+      <xdr:rowOff>97490</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5138,14 +5138,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>30</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>287160</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>41415</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>410197</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2421541</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>79215</xdr:rowOff>
     </xdr:to>
@@ -9956,8 +9956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B381323B-FCE1-4D49-A95C-E87D6921B120}">
   <dimension ref="A2:G40"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23:F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -10442,682 +10442,234 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B3:AH40"/>
+  <dimension ref="A3:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29:N29"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="8.69921875" style="20"/>
     <col min="2" max="2" width="16.8984375" style="20" customWidth="1"/>
-    <col min="3" max="16384" width="8.69921875" style="20"/>
+    <col min="3" max="3" width="35.19921875" style="20" customWidth="1"/>
+    <col min="4" max="4" width="34.296875" style="20" customWidth="1"/>
+    <col min="5" max="5" width="35.3984375" style="20" customWidth="1"/>
+    <col min="6" max="6" width="34.59765625" style="20" customWidth="1"/>
+    <col min="7" max="7" width="35.59765625" style="20" customWidth="1"/>
+    <col min="8" max="8" width="38.19921875" style="20" customWidth="1"/>
+    <col min="9" max="9" width="34.19921875" style="20" customWidth="1"/>
+    <col min="10" max="10" width="34" style="20" customWidth="1"/>
+    <col min="11" max="16384" width="8.69921875" style="20"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:34" ht="18" customHeight="1">
+    <row r="3" spans="3:10" ht="18" customHeight="1">
       <c r="C3" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="55"/>
+      <c r="D3" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="F3" s="53" t="s">
+        <v>98</v>
+      </c>
       <c r="G3" s="53" t="s">
-        <v>96</v>
-      </c>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="55"/>
-      <c r="O3" s="53" t="s">
-        <v>98</v>
-      </c>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="55"/>
-      <c r="S3" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="T3" s="54"/>
-      <c r="U3" s="54"/>
-      <c r="V3" s="55"/>
-      <c r="W3" s="53" t="s">
+      <c r="H3" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="X3" s="54"/>
-      <c r="Y3" s="54"/>
-      <c r="Z3" s="55"/>
-      <c r="AA3" s="53" t="s">
+      <c r="I3" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="AB3" s="54"/>
-      <c r="AC3" s="54"/>
-      <c r="AD3" s="55"/>
-      <c r="AE3" s="53" t="s">
+      <c r="J3" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="AF3" s="54"/>
-      <c r="AG3" s="54"/>
-      <c r="AH3" s="55"/>
-    </row>
-    <row r="4" spans="3:34">
+    </row>
+    <row r="4" spans="3:10">
       <c r="C4" s="56"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="58"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
       <c r="G4" s="56"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="56"/>
-      <c r="P4" s="57"/>
-      <c r="Q4" s="57"/>
-      <c r="R4" s="58"/>
-      <c r="S4" s="56"/>
-      <c r="T4" s="57"/>
-      <c r="U4" s="57"/>
-      <c r="V4" s="58"/>
-      <c r="W4" s="56"/>
-      <c r="X4" s="57"/>
-      <c r="Y4" s="57"/>
-      <c r="Z4" s="58"/>
-      <c r="AA4" s="56"/>
-      <c r="AB4" s="57"/>
-      <c r="AC4" s="57"/>
-      <c r="AD4" s="58"/>
-      <c r="AE4" s="56"/>
-      <c r="AF4" s="57"/>
-      <c r="AG4" s="57"/>
-      <c r="AH4" s="58"/>
-    </row>
-    <row r="5" spans="3:34">
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+    </row>
+    <row r="5" spans="3:10">
       <c r="C5" s="44"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="46"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
       <c r="G5" s="44"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="46"/>
-      <c r="O5" s="44"/>
-      <c r="P5" s="45"/>
-      <c r="Q5" s="45"/>
-      <c r="R5" s="46"/>
-      <c r="S5" s="44"/>
-      <c r="T5" s="45"/>
-      <c r="U5" s="45"/>
-      <c r="V5" s="46"/>
-      <c r="W5" s="44"/>
-      <c r="X5" s="45"/>
-      <c r="Y5" s="45"/>
-      <c r="Z5" s="46"/>
-      <c r="AA5" s="44"/>
-      <c r="AB5" s="45"/>
-      <c r="AC5" s="45"/>
-      <c r="AD5" s="46"/>
-      <c r="AE5" s="44"/>
-      <c r="AF5" s="45"/>
-      <c r="AG5" s="45"/>
-      <c r="AH5" s="46"/>
-    </row>
-    <row r="6" spans="3:34">
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+    </row>
+    <row r="6" spans="3:10">
       <c r="C6" s="47"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="49"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
       <c r="G6" s="47"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="49"/>
-      <c r="O6" s="47"/>
-      <c r="P6" s="48"/>
-      <c r="Q6" s="48"/>
-      <c r="R6" s="49"/>
-      <c r="S6" s="47"/>
-      <c r="T6" s="48"/>
-      <c r="U6" s="48"/>
-      <c r="V6" s="49"/>
-      <c r="W6" s="47"/>
-      <c r="X6" s="48"/>
-      <c r="Y6" s="48"/>
-      <c r="Z6" s="49"/>
-      <c r="AA6" s="47"/>
-      <c r="AB6" s="48"/>
-      <c r="AC6" s="48"/>
-      <c r="AD6" s="49"/>
-      <c r="AE6" s="47"/>
-      <c r="AF6" s="48"/>
-      <c r="AG6" s="48"/>
-      <c r="AH6" s="49"/>
-    </row>
-    <row r="7" spans="3:34">
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+    </row>
+    <row r="7" spans="3:10">
       <c r="C7" s="47"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="49"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
       <c r="G7" s="47"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="48"/>
-      <c r="N7" s="49"/>
-      <c r="O7" s="47"/>
-      <c r="P7" s="48"/>
-      <c r="Q7" s="48"/>
-      <c r="R7" s="49"/>
-      <c r="S7" s="47"/>
-      <c r="T7" s="48"/>
-      <c r="U7" s="48"/>
-      <c r="V7" s="49"/>
-      <c r="W7" s="47"/>
-      <c r="X7" s="48"/>
-      <c r="Y7" s="48"/>
-      <c r="Z7" s="49"/>
-      <c r="AA7" s="47"/>
-      <c r="AB7" s="48"/>
-      <c r="AC7" s="48"/>
-      <c r="AD7" s="49"/>
-      <c r="AE7" s="47"/>
-      <c r="AF7" s="48"/>
-      <c r="AG7" s="48"/>
-      <c r="AH7" s="49"/>
-    </row>
-    <row r="8" spans="3:34">
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+    </row>
+    <row r="8" spans="3:10">
       <c r="C8" s="47"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="49"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
       <c r="G8" s="47"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="49"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="48"/>
-      <c r="Q8" s="48"/>
-      <c r="R8" s="49"/>
-      <c r="S8" s="47"/>
-      <c r="T8" s="48"/>
-      <c r="U8" s="48"/>
-      <c r="V8" s="49"/>
-      <c r="W8" s="47"/>
-      <c r="X8" s="48"/>
-      <c r="Y8" s="48"/>
-      <c r="Z8" s="49"/>
-      <c r="AA8" s="47"/>
-      <c r="AB8" s="48"/>
-      <c r="AC8" s="48"/>
-      <c r="AD8" s="49"/>
-      <c r="AE8" s="47"/>
-      <c r="AF8" s="48"/>
-      <c r="AG8" s="48"/>
-      <c r="AH8" s="49"/>
-    </row>
-    <row r="9" spans="3:34">
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+    </row>
+    <row r="9" spans="3:10">
       <c r="C9" s="47"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="49"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
       <c r="G9" s="47"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="48"/>
-      <c r="N9" s="49"/>
-      <c r="O9" s="47"/>
-      <c r="P9" s="48"/>
-      <c r="Q9" s="48"/>
-      <c r="R9" s="49"/>
-      <c r="S9" s="47"/>
-      <c r="T9" s="48"/>
-      <c r="U9" s="48"/>
-      <c r="V9" s="49"/>
-      <c r="W9" s="47"/>
-      <c r="X9" s="48"/>
-      <c r="Y9" s="48"/>
-      <c r="Z9" s="49"/>
-      <c r="AA9" s="47"/>
-      <c r="AB9" s="48"/>
-      <c r="AC9" s="48"/>
-      <c r="AD9" s="49"/>
-      <c r="AE9" s="47"/>
-      <c r="AF9" s="48"/>
-      <c r="AG9" s="48"/>
-      <c r="AH9" s="49"/>
-    </row>
-    <row r="10" spans="3:34">
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+    </row>
+    <row r="10" spans="3:10">
       <c r="C10" s="47"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="49"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
       <c r="G10" s="47"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="48"/>
-      <c r="M10" s="48"/>
-      <c r="N10" s="49"/>
-      <c r="O10" s="47"/>
-      <c r="P10" s="48"/>
-      <c r="Q10" s="48"/>
-      <c r="R10" s="49"/>
-      <c r="S10" s="47"/>
-      <c r="T10" s="48"/>
-      <c r="U10" s="48"/>
-      <c r="V10" s="49"/>
-      <c r="W10" s="47"/>
-      <c r="X10" s="48"/>
-      <c r="Y10" s="48"/>
-      <c r="Z10" s="49"/>
-      <c r="AA10" s="47"/>
-      <c r="AB10" s="48"/>
-      <c r="AC10" s="48"/>
-      <c r="AD10" s="49"/>
-      <c r="AE10" s="47"/>
-      <c r="AF10" s="48"/>
-      <c r="AG10" s="48"/>
-      <c r="AH10" s="49"/>
-    </row>
-    <row r="11" spans="3:34">
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+    </row>
+    <row r="11" spans="3:10">
       <c r="C11" s="47"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="49"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
       <c r="G11" s="47"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="48"/>
-      <c r="N11" s="49"/>
-      <c r="O11" s="47"/>
-      <c r="P11" s="48"/>
-      <c r="Q11" s="48"/>
-      <c r="R11" s="49"/>
-      <c r="S11" s="47"/>
-      <c r="T11" s="48"/>
-      <c r="U11" s="48"/>
-      <c r="V11" s="49"/>
-      <c r="W11" s="47"/>
-      <c r="X11" s="48"/>
-      <c r="Y11" s="48"/>
-      <c r="Z11" s="49"/>
-      <c r="AA11" s="47"/>
-      <c r="AB11" s="48"/>
-      <c r="AC11" s="48"/>
-      <c r="AD11" s="49"/>
-      <c r="AE11" s="47"/>
-      <c r="AF11" s="48"/>
-      <c r="AG11" s="48"/>
-      <c r="AH11" s="49"/>
-    </row>
-    <row r="12" spans="3:34">
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
+    </row>
+    <row r="12" spans="3:10">
       <c r="C12" s="47"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="49"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
       <c r="G12" s="47"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="48"/>
-      <c r="N12" s="49"/>
-      <c r="O12" s="47"/>
-      <c r="P12" s="48"/>
-      <c r="Q12" s="48"/>
-      <c r="R12" s="49"/>
-      <c r="S12" s="47"/>
-      <c r="T12" s="48"/>
-      <c r="U12" s="48"/>
-      <c r="V12" s="49"/>
-      <c r="W12" s="47"/>
-      <c r="X12" s="48"/>
-      <c r="Y12" s="48"/>
-      <c r="Z12" s="49"/>
-      <c r="AA12" s="47"/>
-      <c r="AB12" s="48"/>
-      <c r="AC12" s="48"/>
-      <c r="AD12" s="49"/>
-      <c r="AE12" s="47"/>
-      <c r="AF12" s="48"/>
-      <c r="AG12" s="48"/>
-      <c r="AH12" s="49"/>
-    </row>
-    <row r="13" spans="3:34">
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
+    </row>
+    <row r="13" spans="3:10">
       <c r="C13" s="47"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="49"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
       <c r="G13" s="47"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="48"/>
-      <c r="N13" s="49"/>
-      <c r="O13" s="47"/>
-      <c r="P13" s="48"/>
-      <c r="Q13" s="48"/>
-      <c r="R13" s="49"/>
-      <c r="S13" s="47"/>
-      <c r="T13" s="48"/>
-      <c r="U13" s="48"/>
-      <c r="V13" s="49"/>
-      <c r="W13" s="47"/>
-      <c r="X13" s="48"/>
-      <c r="Y13" s="48"/>
-      <c r="Z13" s="49"/>
-      <c r="AA13" s="47"/>
-      <c r="AB13" s="48"/>
-      <c r="AC13" s="48"/>
-      <c r="AD13" s="49"/>
-      <c r="AE13" s="47"/>
-      <c r="AF13" s="48"/>
-      <c r="AG13" s="48"/>
-      <c r="AH13" s="49"/>
-    </row>
-    <row r="14" spans="3:34">
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+    </row>
+    <row r="14" spans="3:10">
       <c r="C14" s="47"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="49"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
       <c r="G14" s="47"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="49"/>
-      <c r="O14" s="47"/>
-      <c r="P14" s="48"/>
-      <c r="Q14" s="48"/>
-      <c r="R14" s="49"/>
-      <c r="S14" s="47"/>
-      <c r="T14" s="48"/>
-      <c r="U14" s="48"/>
-      <c r="V14" s="49"/>
-      <c r="W14" s="47"/>
-      <c r="X14" s="48"/>
-      <c r="Y14" s="48"/>
-      <c r="Z14" s="49"/>
-      <c r="AA14" s="47"/>
-      <c r="AB14" s="48"/>
-      <c r="AC14" s="48"/>
-      <c r="AD14" s="49"/>
-      <c r="AE14" s="47"/>
-      <c r="AF14" s="48"/>
-      <c r="AG14" s="48"/>
-      <c r="AH14" s="49"/>
-    </row>
-    <row r="15" spans="3:34">
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+    </row>
+    <row r="15" spans="3:10">
       <c r="C15" s="47"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="49"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
       <c r="G15" s="47"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="47"/>
-      <c r="L15" s="48"/>
-      <c r="M15" s="48"/>
-      <c r="N15" s="49"/>
-      <c r="O15" s="47"/>
-      <c r="P15" s="48"/>
-      <c r="Q15" s="48"/>
-      <c r="R15" s="49"/>
-      <c r="S15" s="47"/>
-      <c r="T15" s="48"/>
-      <c r="U15" s="48"/>
-      <c r="V15" s="49"/>
-      <c r="W15" s="47"/>
-      <c r="X15" s="48"/>
-      <c r="Y15" s="48"/>
-      <c r="Z15" s="49"/>
-      <c r="AA15" s="47"/>
-      <c r="AB15" s="48"/>
-      <c r="AC15" s="48"/>
-      <c r="AD15" s="49"/>
-      <c r="AE15" s="47"/>
-      <c r="AF15" s="48"/>
-      <c r="AG15" s="48"/>
-      <c r="AH15" s="49"/>
-    </row>
-    <row r="16" spans="3:34">
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+    </row>
+    <row r="16" spans="3:10">
       <c r="C16" s="47"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="49"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
       <c r="G16" s="47"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="47"/>
-      <c r="L16" s="48"/>
-      <c r="M16" s="48"/>
-      <c r="N16" s="49"/>
-      <c r="O16" s="47"/>
-      <c r="P16" s="48"/>
-      <c r="Q16" s="48"/>
-      <c r="R16" s="49"/>
-      <c r="S16" s="47"/>
-      <c r="T16" s="48"/>
-      <c r="U16" s="48"/>
-      <c r="V16" s="49"/>
-      <c r="W16" s="47"/>
-      <c r="X16" s="48"/>
-      <c r="Y16" s="48"/>
-      <c r="Z16" s="49"/>
-      <c r="AA16" s="47"/>
-      <c r="AB16" s="48"/>
-      <c r="AC16" s="48"/>
-      <c r="AD16" s="49"/>
-      <c r="AE16" s="47"/>
-      <c r="AF16" s="48"/>
-      <c r="AG16" s="48"/>
-      <c r="AH16" s="49"/>
-    </row>
-    <row r="17" spans="2:34">
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+    </row>
+    <row r="17" spans="1:10">
       <c r="C17" s="47"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="49"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
       <c r="G17" s="47"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="47"/>
-      <c r="L17" s="48"/>
-      <c r="M17" s="48"/>
-      <c r="N17" s="49"/>
-      <c r="O17" s="47"/>
-      <c r="P17" s="48"/>
-      <c r="Q17" s="48"/>
-      <c r="R17" s="49"/>
-      <c r="S17" s="47"/>
-      <c r="T17" s="48"/>
-      <c r="U17" s="48"/>
-      <c r="V17" s="49"/>
-      <c r="W17" s="47"/>
-      <c r="X17" s="48"/>
-      <c r="Y17" s="48"/>
-      <c r="Z17" s="49"/>
-      <c r="AA17" s="47"/>
-      <c r="AB17" s="48"/>
-      <c r="AC17" s="48"/>
-      <c r="AD17" s="49"/>
-      <c r="AE17" s="47"/>
-      <c r="AF17" s="48"/>
-      <c r="AG17" s="48"/>
-      <c r="AH17" s="49"/>
-    </row>
-    <row r="18" spans="2:34">
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
+    </row>
+    <row r="18" spans="1:10">
       <c r="C18" s="47"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="49"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
       <c r="G18" s="47"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="47"/>
-      <c r="L18" s="48"/>
-      <c r="M18" s="48"/>
-      <c r="N18" s="49"/>
-      <c r="O18" s="47"/>
-      <c r="P18" s="48"/>
-      <c r="Q18" s="48"/>
-      <c r="R18" s="49"/>
-      <c r="S18" s="47"/>
-      <c r="T18" s="48"/>
-      <c r="U18" s="48"/>
-      <c r="V18" s="49"/>
-      <c r="W18" s="47"/>
-      <c r="X18" s="48"/>
-      <c r="Y18" s="48"/>
-      <c r="Z18" s="49"/>
-      <c r="AA18" s="47"/>
-      <c r="AB18" s="48"/>
-      <c r="AC18" s="48"/>
-      <c r="AD18" s="49"/>
-      <c r="AE18" s="47"/>
-      <c r="AF18" s="48"/>
-      <c r="AG18" s="48"/>
-      <c r="AH18" s="49"/>
-    </row>
-    <row r="19" spans="2:34">
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="47"/>
+    </row>
+    <row r="19" spans="1:10">
       <c r="C19" s="47"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="49"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
       <c r="G19" s="47"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="49"/>
-      <c r="K19" s="47"/>
-      <c r="L19" s="48"/>
-      <c r="M19" s="48"/>
-      <c r="N19" s="49"/>
-      <c r="O19" s="47"/>
-      <c r="P19" s="48"/>
-      <c r="Q19" s="48"/>
-      <c r="R19" s="49"/>
-      <c r="S19" s="47"/>
-      <c r="T19" s="48"/>
-      <c r="U19" s="48"/>
-      <c r="V19" s="49"/>
-      <c r="W19" s="47"/>
-      <c r="X19" s="48"/>
-      <c r="Y19" s="48"/>
-      <c r="Z19" s="49"/>
-      <c r="AA19" s="47"/>
-      <c r="AB19" s="48"/>
-      <c r="AC19" s="48"/>
-      <c r="AD19" s="49"/>
-      <c r="AE19" s="47"/>
-      <c r="AF19" s="48"/>
-      <c r="AG19" s="48"/>
-      <c r="AH19" s="49"/>
-    </row>
-    <row r="20" spans="2:34">
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="47"/>
+    </row>
+    <row r="20" spans="1:10">
       <c r="C20" s="47"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="49"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
       <c r="G20" s="47"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="49"/>
-      <c r="K20" s="47"/>
-      <c r="L20" s="48"/>
-      <c r="M20" s="48"/>
-      <c r="N20" s="49"/>
-      <c r="O20" s="47"/>
-      <c r="P20" s="48"/>
-      <c r="Q20" s="48"/>
-      <c r="R20" s="49"/>
-      <c r="S20" s="47"/>
-      <c r="T20" s="48"/>
-      <c r="U20" s="48"/>
-      <c r="V20" s="49"/>
-      <c r="W20" s="47"/>
-      <c r="X20" s="48"/>
-      <c r="Y20" s="48"/>
-      <c r="Z20" s="49"/>
-      <c r="AA20" s="47"/>
-      <c r="AB20" s="48"/>
-      <c r="AC20" s="48"/>
-      <c r="AD20" s="49"/>
-      <c r="AE20" s="47"/>
-      <c r="AF20" s="48"/>
-      <c r="AG20" s="48"/>
-      <c r="AH20" s="49"/>
-    </row>
-    <row r="21" spans="2:34">
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="47"/>
+    </row>
+    <row r="21" spans="1:10">
       <c r="C21" s="50"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="52"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
       <c r="G21" s="50"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="50"/>
-      <c r="L21" s="51"/>
-      <c r="M21" s="51"/>
-      <c r="N21" s="52"/>
-      <c r="O21" s="50"/>
-      <c r="P21" s="51"/>
-      <c r="Q21" s="51"/>
-      <c r="R21" s="52"/>
-      <c r="S21" s="50"/>
-      <c r="T21" s="51"/>
-      <c r="U21" s="51"/>
-      <c r="V21" s="52"/>
-      <c r="W21" s="50"/>
-      <c r="X21" s="51"/>
-      <c r="Y21" s="51"/>
-      <c r="Z21" s="52"/>
-      <c r="AA21" s="50"/>
-      <c r="AB21" s="51"/>
-      <c r="AC21" s="51"/>
-      <c r="AD21" s="52"/>
-      <c r="AE21" s="50"/>
-      <c r="AF21" s="51"/>
-      <c r="AG21" s="51"/>
-      <c r="AH21" s="52"/>
-    </row>
-    <row r="22" spans="2:34" ht="18" customHeight="1">
+      <c r="H21" s="50"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="50"/>
+    </row>
+    <row r="22" spans="1:10" ht="18" customHeight="1">
       <c r="B22" t="s">
         <v>120</v>
       </c>
@@ -11125,847 +10677,293 @@
       <c r="D22"/>
       <c r="E22"/>
       <c r="F22"/>
-      <c r="G22"/>
-      <c r="H22"/>
-      <c r="I22"/>
-      <c r="J22"/>
-      <c r="K22"/>
-      <c r="L22"/>
-      <c r="M22"/>
-      <c r="N22"/>
-      <c r="O22"/>
-      <c r="P22"/>
-      <c r="Q22"/>
-      <c r="R22"/>
-    </row>
-    <row r="23" spans="2:34">
-      <c r="B23" s="2" t="s">
+    </row>
+    <row r="23" spans="1:10">
+      <c r="B23" s="63" t="s">
         <v>118</v>
       </c>
-      <c r="C23" s="59"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="59"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="59"/>
-      <c r="J23" s="59"/>
-      <c r="K23" s="59"/>
-      <c r="L23" s="59"/>
-      <c r="M23" s="59"/>
-      <c r="N23" s="59"/>
-      <c r="O23" s="59"/>
-      <c r="P23" s="59"/>
-      <c r="Q23" s="59"/>
-      <c r="R23" s="59"/>
-      <c r="S23" s="59"/>
-      <c r="T23" s="59"/>
-      <c r="U23" s="59"/>
-      <c r="V23" s="59"/>
-      <c r="W23" s="59"/>
-      <c r="X23" s="59"/>
-      <c r="Y23" s="59"/>
-      <c r="Z23" s="59"/>
-      <c r="AA23" s="59"/>
-      <c r="AB23" s="59"/>
-      <c r="AC23" s="59"/>
-      <c r="AD23" s="59"/>
-      <c r="AE23" s="59"/>
-      <c r="AF23" s="59"/>
-      <c r="AG23" s="59"/>
-      <c r="AH23" s="59"/>
-    </row>
-    <row r="24" spans="2:34">
+      <c r="C23" s="63" t="s">
+        <v>129</v>
+      </c>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="61"/>
+    </row>
+    <row r="24" spans="1:10" customFormat="1" ht="36">
+      <c r="A24" s="25" t="s">
+        <v>144</v>
+      </c>
       <c r="B24" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C24" s="62" t="s">
+        <v>161</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="F24" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="G24" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="H24" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="I24" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J24" s="24" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="B25" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="59"/>
-      <c r="I24" s="59"/>
-      <c r="J24" s="59"/>
-      <c r="K24" s="59"/>
-      <c r="L24" s="59"/>
-      <c r="M24" s="59"/>
-      <c r="N24" s="59"/>
-      <c r="O24" s="59"/>
-      <c r="P24" s="59"/>
-      <c r="Q24" s="59"/>
-      <c r="R24" s="59"/>
-      <c r="S24" s="59"/>
-      <c r="T24" s="59"/>
-      <c r="U24" s="59"/>
-      <c r="V24" s="59"/>
-      <c r="W24" s="59"/>
-      <c r="X24" s="59"/>
-      <c r="Y24" s="59"/>
-      <c r="Z24" s="59"/>
-      <c r="AA24" s="59"/>
-      <c r="AB24" s="59"/>
-      <c r="AC24" s="59"/>
-      <c r="AD24" s="59"/>
-      <c r="AE24" s="59"/>
-      <c r="AF24" s="59"/>
-      <c r="AG24" s="59"/>
-      <c r="AH24" s="59"/>
-    </row>
-    <row r="25" spans="2:34">
-      <c r="B25" s="2" t="s">
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="B26" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C25" s="60"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="60"/>
-      <c r="H25" s="60"/>
-      <c r="I25" s="60"/>
-      <c r="J25" s="60"/>
-      <c r="K25" s="60"/>
-      <c r="L25" s="60"/>
-      <c r="M25" s="60"/>
-      <c r="N25" s="60"/>
-      <c r="O25" s="60"/>
-      <c r="P25" s="60"/>
-      <c r="Q25" s="60"/>
-      <c r="R25" s="60"/>
-      <c r="S25" s="60"/>
-      <c r="T25" s="60"/>
-      <c r="U25" s="60"/>
-      <c r="V25" s="60"/>
-      <c r="W25" s="60"/>
-      <c r="X25" s="60"/>
-      <c r="Y25" s="60"/>
-      <c r="Z25" s="60"/>
-      <c r="AA25" s="60"/>
-      <c r="AB25" s="60"/>
-      <c r="AC25" s="60"/>
-      <c r="AD25" s="60"/>
-      <c r="AE25" s="60"/>
-      <c r="AF25" s="60"/>
-      <c r="AG25" s="60"/>
-      <c r="AH25" s="60"/>
-    </row>
-    <row r="26" spans="2:34">
-      <c r="B26" s="2" t="s">
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="B27" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C26" s="60"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="60"/>
-      <c r="H26" s="60"/>
-      <c r="I26" s="60"/>
-      <c r="J26" s="60"/>
-      <c r="K26" s="60"/>
-      <c r="L26" s="60"/>
-      <c r="M26" s="60"/>
-      <c r="N26" s="60"/>
-      <c r="O26" s="60"/>
-      <c r="P26" s="60"/>
-      <c r="Q26" s="60"/>
-      <c r="R26" s="60"/>
-      <c r="S26" s="60"/>
-      <c r="T26" s="60"/>
-      <c r="U26" s="60"/>
-      <c r="V26" s="60"/>
-      <c r="W26" s="60"/>
-      <c r="X26" s="60"/>
-      <c r="Y26" s="60"/>
-      <c r="Z26" s="60"/>
-      <c r="AA26" s="60"/>
-      <c r="AB26" s="60"/>
-      <c r="AC26" s="60"/>
-      <c r="AD26" s="60"/>
-      <c r="AE26" s="60"/>
-      <c r="AF26" s="60"/>
-      <c r="AG26" s="60"/>
-      <c r="AH26" s="60"/>
-    </row>
-    <row r="27" spans="2:34">
-      <c r="B27" s="2" t="s">
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="B28" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C27" s="60"/>
-      <c r="D27" s="60"/>
-      <c r="E27" s="60"/>
-      <c r="F27" s="60"/>
-      <c r="G27" s="60"/>
-      <c r="H27" s="60"/>
-      <c r="I27" s="60"/>
-      <c r="J27" s="60"/>
-      <c r="K27" s="60"/>
-      <c r="L27" s="60"/>
-      <c r="M27" s="60"/>
-      <c r="N27" s="60"/>
-      <c r="O27" s="60"/>
-      <c r="P27" s="60"/>
-      <c r="Q27" s="60"/>
-      <c r="R27" s="60"/>
-      <c r="S27" s="60"/>
-      <c r="T27" s="60"/>
-      <c r="U27" s="60"/>
-      <c r="V27" s="60"/>
-      <c r="W27" s="60"/>
-      <c r="X27" s="60"/>
-      <c r="Y27" s="60"/>
-      <c r="Z27" s="60"/>
-      <c r="AA27" s="60"/>
-      <c r="AB27" s="60"/>
-      <c r="AC27" s="60"/>
-      <c r="AD27" s="60"/>
-      <c r="AE27" s="60"/>
-      <c r="AF27" s="60"/>
-      <c r="AG27" s="60"/>
-      <c r="AH27" s="60"/>
-    </row>
-    <row r="28" spans="2:34">
-      <c r="B28" s="2" t="s">
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="B29" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C28" s="60"/>
-      <c r="D28" s="60"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="60"/>
-      <c r="G28" s="60"/>
-      <c r="H28" s="60"/>
-      <c r="I28" s="60"/>
-      <c r="J28" s="60"/>
-      <c r="K28" s="60"/>
-      <c r="L28" s="60"/>
-      <c r="M28" s="60"/>
-      <c r="N28" s="60"/>
-      <c r="O28" s="60"/>
-      <c r="P28" s="60"/>
-      <c r="Q28" s="60"/>
-      <c r="R28" s="60"/>
-      <c r="S28" s="60"/>
-      <c r="T28" s="60"/>
-      <c r="U28" s="60"/>
-      <c r="V28" s="60"/>
-      <c r="W28" s="60"/>
-      <c r="X28" s="60"/>
-      <c r="Y28" s="60"/>
-      <c r="Z28" s="60"/>
-      <c r="AA28" s="60"/>
-      <c r="AB28" s="60"/>
-      <c r="AC28" s="60"/>
-      <c r="AD28" s="60"/>
-      <c r="AE28" s="60"/>
-      <c r="AF28" s="60"/>
-      <c r="AG28" s="60"/>
-      <c r="AH28" s="60"/>
-    </row>
-    <row r="29" spans="2:34">
-      <c r="B29" s="2" t="s">
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="B30" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="60"/>
-      <c r="D29" s="60"/>
-      <c r="E29" s="60"/>
-      <c r="F29" s="60"/>
-      <c r="G29" s="60"/>
-      <c r="H29" s="60"/>
-      <c r="I29" s="60"/>
-      <c r="J29" s="60"/>
-      <c r="K29" s="60"/>
-      <c r="L29" s="60"/>
-      <c r="M29" s="60"/>
-      <c r="N29" s="60"/>
-      <c r="O29" s="60"/>
-      <c r="P29" s="60"/>
-      <c r="Q29" s="60"/>
-      <c r="R29" s="60"/>
-      <c r="S29" s="60"/>
-      <c r="T29" s="60"/>
-      <c r="U29" s="60"/>
-      <c r="V29" s="60"/>
-      <c r="W29" s="60"/>
-      <c r="X29" s="60"/>
-      <c r="Y29" s="60"/>
-      <c r="Z29" s="60"/>
-      <c r="AA29" s="60"/>
-      <c r="AB29" s="60"/>
-      <c r="AC29" s="60"/>
-      <c r="AD29" s="60"/>
-      <c r="AE29" s="60"/>
-      <c r="AF29" s="60"/>
-      <c r="AG29" s="60"/>
-      <c r="AH29" s="60"/>
-    </row>
-    <row r="30" spans="2:34">
-      <c r="B30" s="2" t="s">
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="B31" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C30" s="60"/>
-      <c r="D30" s="60"/>
-      <c r="E30" s="60"/>
-      <c r="F30" s="60"/>
-      <c r="G30" s="60"/>
-      <c r="H30" s="60"/>
-      <c r="I30" s="60"/>
-      <c r="J30" s="60"/>
-      <c r="K30" s="60"/>
-      <c r="L30" s="60"/>
-      <c r="M30" s="60"/>
-      <c r="N30" s="60"/>
-      <c r="O30" s="60"/>
-      <c r="P30" s="60"/>
-      <c r="Q30" s="60"/>
-      <c r="R30" s="60"/>
-      <c r="S30" s="60"/>
-      <c r="T30" s="60"/>
-      <c r="U30" s="60"/>
-      <c r="V30" s="60"/>
-      <c r="W30" s="60"/>
-      <c r="X30" s="60"/>
-      <c r="Y30" s="60"/>
-      <c r="Z30" s="60"/>
-      <c r="AA30" s="60"/>
-      <c r="AB30" s="60"/>
-      <c r="AC30" s="60"/>
-      <c r="AD30" s="60"/>
-      <c r="AE30" s="60"/>
-      <c r="AF30" s="60"/>
-      <c r="AG30" s="60"/>
-      <c r="AH30" s="60"/>
-    </row>
-    <row r="31" spans="2:34">
-      <c r="B31" s="2" t="s">
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="B32" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C31" s="59"/>
-      <c r="D31" s="59"/>
-      <c r="E31" s="59"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="59"/>
-      <c r="H31" s="59"/>
-      <c r="I31" s="59"/>
-      <c r="J31" s="59"/>
-      <c r="K31" s="59"/>
-      <c r="L31" s="59"/>
-      <c r="M31" s="59"/>
-      <c r="N31" s="59"/>
-      <c r="O31" s="59"/>
-      <c r="P31" s="59"/>
-      <c r="Q31" s="59"/>
-      <c r="R31" s="59"/>
-      <c r="S31" s="59"/>
-      <c r="T31" s="59"/>
-      <c r="U31" s="59"/>
-      <c r="V31" s="59"/>
-      <c r="W31" s="59"/>
-      <c r="X31" s="59"/>
-      <c r="Y31" s="59"/>
-      <c r="Z31" s="59"/>
-      <c r="AA31" s="59"/>
-      <c r="AB31" s="59"/>
-      <c r="AC31" s="59"/>
-      <c r="AD31" s="59"/>
-      <c r="AE31" s="59"/>
-      <c r="AF31" s="59"/>
-      <c r="AG31" s="59"/>
-      <c r="AH31" s="59"/>
-    </row>
-    <row r="32" spans="2:34">
-      <c r="B32" s="2" t="s">
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+    </row>
+    <row r="33" spans="2:10">
+      <c r="B33" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C32" s="59"/>
-      <c r="D32" s="59"/>
-      <c r="E32" s="59"/>
-      <c r="F32" s="59"/>
-      <c r="G32" s="59"/>
-      <c r="H32" s="59"/>
-      <c r="I32" s="59"/>
-      <c r="J32" s="59"/>
-      <c r="K32" s="59"/>
-      <c r="L32" s="59"/>
-      <c r="M32" s="59"/>
-      <c r="N32" s="59"/>
-      <c r="O32" s="59"/>
-      <c r="P32" s="59"/>
-      <c r="Q32" s="59"/>
-      <c r="R32" s="59"/>
-      <c r="S32" s="59"/>
-      <c r="T32" s="59"/>
-      <c r="U32" s="59"/>
-      <c r="V32" s="59"/>
-      <c r="W32" s="59"/>
-      <c r="X32" s="59"/>
-      <c r="Y32" s="59"/>
-      <c r="Z32" s="59"/>
-      <c r="AA32" s="59"/>
-      <c r="AB32" s="59"/>
-      <c r="AC32" s="59"/>
-      <c r="AD32" s="59"/>
-      <c r="AE32" s="59"/>
-      <c r="AF32" s="59"/>
-      <c r="AG32" s="59"/>
-      <c r="AH32" s="59"/>
-    </row>
-    <row r="33" spans="2:34">
-      <c r="B33" s="2" t="s">
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+    </row>
+    <row r="34" spans="2:10">
+      <c r="B34" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="60"/>
-      <c r="D33" s="60"/>
-      <c r="E33" s="60"/>
-      <c r="F33" s="60"/>
-      <c r="G33" s="60"/>
-      <c r="H33" s="60"/>
-      <c r="I33" s="60"/>
-      <c r="J33" s="60"/>
-      <c r="K33" s="60"/>
-      <c r="L33" s="60"/>
-      <c r="M33" s="60"/>
-      <c r="N33" s="60"/>
-      <c r="O33" s="60"/>
-      <c r="P33" s="60"/>
-      <c r="Q33" s="60"/>
-      <c r="R33" s="60"/>
-      <c r="S33" s="60"/>
-      <c r="T33" s="60"/>
-      <c r="U33" s="60"/>
-      <c r="V33" s="60"/>
-      <c r="W33" s="60"/>
-      <c r="X33" s="60"/>
-      <c r="Y33" s="60"/>
-      <c r="Z33" s="60"/>
-      <c r="AA33" s="60"/>
-      <c r="AB33" s="60"/>
-      <c r="AC33" s="60"/>
-      <c r="AD33" s="60"/>
-      <c r="AE33" s="60"/>
-      <c r="AF33" s="60"/>
-      <c r="AG33" s="60"/>
-      <c r="AH33" s="60"/>
-    </row>
-    <row r="34" spans="2:34">
-      <c r="B34" s="2" t="s">
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+    </row>
+    <row r="35" spans="2:10">
+      <c r="B35" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C34" s="60"/>
-      <c r="D34" s="60"/>
-      <c r="E34" s="60"/>
-      <c r="F34" s="60"/>
-      <c r="G34" s="60"/>
-      <c r="H34" s="60"/>
-      <c r="I34" s="60"/>
-      <c r="J34" s="60"/>
-      <c r="K34" s="60"/>
-      <c r="L34" s="60"/>
-      <c r="M34" s="60"/>
-      <c r="N34" s="60"/>
-      <c r="O34" s="60"/>
-      <c r="P34" s="60"/>
-      <c r="Q34" s="60"/>
-      <c r="R34" s="60"/>
-      <c r="S34" s="60"/>
-      <c r="T34" s="60"/>
-      <c r="U34" s="60"/>
-      <c r="V34" s="60"/>
-      <c r="W34" s="60"/>
-      <c r="X34" s="60"/>
-      <c r="Y34" s="60"/>
-      <c r="Z34" s="60"/>
-      <c r="AA34" s="60"/>
-      <c r="AB34" s="60"/>
-      <c r="AC34" s="60"/>
-      <c r="AD34" s="60"/>
-      <c r="AE34" s="60"/>
-      <c r="AF34" s="60"/>
-      <c r="AG34" s="60"/>
-      <c r="AH34" s="60"/>
-    </row>
-    <row r="35" spans="2:34">
-      <c r="B35" s="2" t="s">
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+    </row>
+    <row r="36" spans="2:10">
+      <c r="B36" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C35" s="60"/>
-      <c r="D35" s="60"/>
-      <c r="E35" s="60"/>
-      <c r="F35" s="60"/>
-      <c r="G35" s="60"/>
-      <c r="H35" s="60"/>
-      <c r="I35" s="60"/>
-      <c r="J35" s="60"/>
-      <c r="K35" s="59"/>
-      <c r="L35" s="59"/>
-      <c r="M35" s="59"/>
-      <c r="N35" s="59"/>
-      <c r="O35" s="59"/>
-      <c r="P35" s="59"/>
-      <c r="Q35" s="59"/>
-      <c r="R35" s="59"/>
-      <c r="S35" s="60"/>
-      <c r="T35" s="60"/>
-      <c r="U35" s="60"/>
-      <c r="V35" s="60"/>
-      <c r="W35" s="60"/>
-      <c r="X35" s="60"/>
-      <c r="Y35" s="60"/>
-      <c r="Z35" s="60"/>
-      <c r="AA35" s="59"/>
-      <c r="AB35" s="59"/>
-      <c r="AC35" s="59"/>
-      <c r="AD35" s="59"/>
-      <c r="AE35" s="59"/>
-      <c r="AF35" s="59"/>
-      <c r="AG35" s="59"/>
-      <c r="AH35" s="59"/>
-    </row>
-    <row r="36" spans="2:34">
-      <c r="B36" s="2" t="s">
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="21"/>
+    </row>
+    <row r="37" spans="2:10">
+      <c r="B37" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C36" s="59"/>
-      <c r="D36" s="59"/>
-      <c r="E36" s="59"/>
-      <c r="F36" s="59"/>
-      <c r="G36" s="59"/>
-      <c r="H36" s="59"/>
-      <c r="I36" s="59"/>
-      <c r="J36" s="59"/>
-      <c r="K36" s="59"/>
-      <c r="L36" s="59"/>
-      <c r="M36" s="59"/>
-      <c r="N36" s="59"/>
-      <c r="O36" s="59"/>
-      <c r="P36" s="59"/>
-      <c r="Q36" s="59"/>
-      <c r="R36" s="59"/>
-      <c r="S36" s="59"/>
-      <c r="T36" s="59"/>
-      <c r="U36" s="59"/>
-      <c r="V36" s="59"/>
-      <c r="W36" s="59"/>
-      <c r="X36" s="59"/>
-      <c r="Y36" s="59"/>
-      <c r="Z36" s="59"/>
-      <c r="AA36" s="59"/>
-      <c r="AB36" s="59"/>
-      <c r="AC36" s="59"/>
-      <c r="AD36" s="59"/>
-      <c r="AE36" s="59"/>
-      <c r="AF36" s="59"/>
-      <c r="AG36" s="59"/>
-      <c r="AH36" s="59"/>
-    </row>
-    <row r="37" spans="2:34">
-      <c r="B37" s="2" t="s">
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="21"/>
+    </row>
+    <row r="38" spans="2:10">
+      <c r="B38" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C37" s="60"/>
-      <c r="D37" s="60"/>
-      <c r="E37" s="60"/>
-      <c r="F37" s="60"/>
-      <c r="G37" s="60"/>
-      <c r="H37" s="60"/>
-      <c r="I37" s="60"/>
-      <c r="J37" s="60"/>
-      <c r="K37" s="60"/>
-      <c r="L37" s="60"/>
-      <c r="M37" s="60"/>
-      <c r="N37" s="60"/>
-      <c r="O37" s="60"/>
-      <c r="P37" s="60"/>
-      <c r="Q37" s="60"/>
-      <c r="R37" s="60"/>
-      <c r="S37" s="60"/>
-      <c r="T37" s="60"/>
-      <c r="U37" s="60"/>
-      <c r="V37" s="60"/>
-      <c r="W37" s="60"/>
-      <c r="X37" s="60"/>
-      <c r="Y37" s="60"/>
-      <c r="Z37" s="60"/>
-      <c r="AA37" s="60"/>
-      <c r="AB37" s="60"/>
-      <c r="AC37" s="60"/>
-      <c r="AD37" s="60"/>
-      <c r="AE37" s="60"/>
-      <c r="AF37" s="60"/>
-      <c r="AG37" s="60"/>
-      <c r="AH37" s="60"/>
-    </row>
-    <row r="38" spans="2:34">
-      <c r="B38" s="2" t="s">
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+    </row>
+    <row r="39" spans="2:10">
+      <c r="B39" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C38" s="60"/>
-      <c r="D38" s="60"/>
-      <c r="E38" s="60"/>
-      <c r="F38" s="60"/>
-      <c r="G38" s="60"/>
-      <c r="H38" s="60"/>
-      <c r="I38" s="60"/>
-      <c r="J38" s="60"/>
-      <c r="K38" s="60"/>
-      <c r="L38" s="60"/>
-      <c r="M38" s="60"/>
-      <c r="N38" s="60"/>
-      <c r="O38" s="60"/>
-      <c r="P38" s="60"/>
-      <c r="Q38" s="60"/>
-      <c r="R38" s="60"/>
-      <c r="S38" s="60"/>
-      <c r="T38" s="60"/>
-      <c r="U38" s="60"/>
-      <c r="V38" s="60"/>
-      <c r="W38" s="60"/>
-      <c r="X38" s="60"/>
-      <c r="Y38" s="60"/>
-      <c r="Z38" s="60"/>
-      <c r="AA38" s="60"/>
-      <c r="AB38" s="60"/>
-      <c r="AC38" s="60"/>
-      <c r="AD38" s="60"/>
-      <c r="AE38" s="60"/>
-      <c r="AF38" s="60"/>
-      <c r="AG38" s="60"/>
-      <c r="AH38" s="60"/>
-    </row>
-    <row r="39" spans="2:34">
-      <c r="B39" s="2" t="s">
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+    </row>
+    <row r="40" spans="2:10">
+      <c r="B40" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C39" s="59"/>
-      <c r="D39" s="59"/>
-      <c r="E39" s="59"/>
-      <c r="F39" s="59"/>
-      <c r="G39" s="59"/>
-      <c r="H39" s="59"/>
-      <c r="I39" s="59"/>
-      <c r="J39" s="59"/>
-      <c r="K39" s="59"/>
-      <c r="L39" s="59"/>
-      <c r="M39" s="59"/>
-      <c r="N39" s="59"/>
-      <c r="O39" s="59"/>
-      <c r="P39" s="59"/>
-      <c r="Q39" s="59"/>
-      <c r="R39" s="59"/>
-      <c r="S39" s="59"/>
-      <c r="T39" s="59"/>
-      <c r="U39" s="59"/>
-      <c r="V39" s="59"/>
-      <c r="W39" s="59"/>
-      <c r="X39" s="59"/>
-      <c r="Y39" s="59"/>
-      <c r="Z39" s="59"/>
-      <c r="AA39" s="59"/>
-      <c r="AB39" s="59"/>
-      <c r="AC39" s="59"/>
-      <c r="AD39" s="59"/>
-      <c r="AE39" s="59"/>
-      <c r="AF39" s="59"/>
-      <c r="AG39" s="59"/>
-      <c r="AH39" s="59"/>
-    </row>
-    <row r="40" spans="2:34">
-      <c r="B40" s="2" t="s">
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="21"/>
+      <c r="J40" s="21"/>
+    </row>
+    <row r="41" spans="2:10">
+      <c r="B41" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C40" s="60"/>
-      <c r="D40" s="60"/>
-      <c r="E40" s="60"/>
-      <c r="F40" s="60"/>
-      <c r="G40" s="60"/>
-      <c r="H40" s="60"/>
-      <c r="I40" s="60"/>
-      <c r="J40" s="60"/>
-      <c r="K40" s="60"/>
-      <c r="L40" s="60"/>
-      <c r="M40" s="60"/>
-      <c r="N40" s="60"/>
-      <c r="O40" s="60"/>
-      <c r="P40" s="60"/>
-      <c r="Q40" s="60"/>
-      <c r="R40" s="60"/>
-      <c r="S40" s="60"/>
-      <c r="T40" s="60"/>
-      <c r="U40" s="60"/>
-      <c r="V40" s="60"/>
-      <c r="W40" s="60"/>
-      <c r="X40" s="60"/>
-      <c r="Y40" s="60"/>
-      <c r="Z40" s="60"/>
-      <c r="AA40" s="60"/>
-      <c r="AB40" s="60"/>
-      <c r="AC40" s="60"/>
-      <c r="AD40" s="60"/>
-      <c r="AE40" s="60"/>
-      <c r="AF40" s="60"/>
-      <c r="AG40" s="60"/>
-      <c r="AH40" s="60"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="160">
-    <mergeCell ref="S39:V39"/>
-    <mergeCell ref="W39:Z39"/>
-    <mergeCell ref="AA39:AD39"/>
-    <mergeCell ref="AE39:AH39"/>
-    <mergeCell ref="S40:V40"/>
-    <mergeCell ref="W40:Z40"/>
-    <mergeCell ref="AA40:AD40"/>
-    <mergeCell ref="AE40:AH40"/>
-    <mergeCell ref="S37:V37"/>
-    <mergeCell ref="W37:Z37"/>
-    <mergeCell ref="AA37:AD37"/>
-    <mergeCell ref="AE37:AH37"/>
-    <mergeCell ref="S38:V38"/>
-    <mergeCell ref="W38:Z38"/>
-    <mergeCell ref="AA38:AD38"/>
-    <mergeCell ref="AE38:AH38"/>
-    <mergeCell ref="S35:V35"/>
-    <mergeCell ref="W35:Z35"/>
-    <mergeCell ref="AA35:AD35"/>
-    <mergeCell ref="AE35:AH35"/>
-    <mergeCell ref="S36:V36"/>
-    <mergeCell ref="W36:Z36"/>
-    <mergeCell ref="AA36:AD36"/>
-    <mergeCell ref="AE36:AH36"/>
-    <mergeCell ref="S33:V33"/>
-    <mergeCell ref="W33:Z33"/>
-    <mergeCell ref="AA33:AD33"/>
-    <mergeCell ref="AE33:AH33"/>
-    <mergeCell ref="S34:V34"/>
-    <mergeCell ref="W34:Z34"/>
-    <mergeCell ref="AA34:AD34"/>
-    <mergeCell ref="AE34:AH34"/>
-    <mergeCell ref="S31:V31"/>
-    <mergeCell ref="W31:Z31"/>
-    <mergeCell ref="AA31:AD31"/>
-    <mergeCell ref="AE31:AH31"/>
-    <mergeCell ref="S32:V32"/>
-    <mergeCell ref="W32:Z32"/>
-    <mergeCell ref="AA32:AD32"/>
-    <mergeCell ref="AE32:AH32"/>
-    <mergeCell ref="S29:V29"/>
-    <mergeCell ref="W29:Z29"/>
-    <mergeCell ref="AA29:AD29"/>
-    <mergeCell ref="AE29:AH29"/>
-    <mergeCell ref="S30:V30"/>
-    <mergeCell ref="W30:Z30"/>
-    <mergeCell ref="AA30:AD30"/>
-    <mergeCell ref="AE30:AH30"/>
-    <mergeCell ref="S27:V27"/>
-    <mergeCell ref="W27:Z27"/>
-    <mergeCell ref="AA27:AD27"/>
-    <mergeCell ref="AE27:AH27"/>
-    <mergeCell ref="S28:V28"/>
-    <mergeCell ref="W28:Z28"/>
-    <mergeCell ref="AA28:AD28"/>
-    <mergeCell ref="AE28:AH28"/>
-    <mergeCell ref="S25:V25"/>
-    <mergeCell ref="W25:Z25"/>
-    <mergeCell ref="AA25:AD25"/>
-    <mergeCell ref="AE25:AH25"/>
-    <mergeCell ref="S26:V26"/>
-    <mergeCell ref="W26:Z26"/>
-    <mergeCell ref="AA26:AD26"/>
-    <mergeCell ref="AE26:AH26"/>
-    <mergeCell ref="S23:V23"/>
-    <mergeCell ref="W23:Z23"/>
-    <mergeCell ref="AA23:AD23"/>
-    <mergeCell ref="AE23:AH23"/>
-    <mergeCell ref="S24:V24"/>
-    <mergeCell ref="W24:Z24"/>
-    <mergeCell ref="AA24:AD24"/>
-    <mergeCell ref="AE24:AH24"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="G39:J39"/>
-    <mergeCell ref="K39:N39"/>
-    <mergeCell ref="O39:R39"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="K34:N34"/>
-    <mergeCell ref="O34:R34"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="G36:J36"/>
-    <mergeCell ref="K36:N36"/>
-    <mergeCell ref="O36:R36"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="G35:J35"/>
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="O35:R35"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="G40:J40"/>
-    <mergeCell ref="K40:N40"/>
-    <mergeCell ref="O40:R40"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="G37:J37"/>
-    <mergeCell ref="K37:N37"/>
-    <mergeCell ref="O37:R37"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="G38:J38"/>
-    <mergeCell ref="K38:N38"/>
-    <mergeCell ref="O38:R38"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="G31:J31"/>
-    <mergeCell ref="K31:N31"/>
-    <mergeCell ref="O31:R31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="G32:J32"/>
-    <mergeCell ref="K32:N32"/>
-    <mergeCell ref="O32:R32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="G33:J33"/>
-    <mergeCell ref="K33:N33"/>
-    <mergeCell ref="O33:R33"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="K29:N29"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="K30:N30"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="K27:N27"/>
-    <mergeCell ref="O27:R27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="K28:N28"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="K25:N25"/>
-    <mergeCell ref="O25:R25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="K26:N26"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="O23:R23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="K24:N24"/>
-    <mergeCell ref="O24:R24"/>
-    <mergeCell ref="S3:V4"/>
-    <mergeCell ref="W3:Z4"/>
-    <mergeCell ref="AA3:AD4"/>
-    <mergeCell ref="AE3:AH4"/>
-    <mergeCell ref="S5:V21"/>
-    <mergeCell ref="W5:Z21"/>
-    <mergeCell ref="AA5:AD21"/>
-    <mergeCell ref="AE5:AH21"/>
-    <mergeCell ref="C3:F4"/>
-    <mergeCell ref="G3:J4"/>
-    <mergeCell ref="K3:N4"/>
-    <mergeCell ref="O3:R4"/>
-    <mergeCell ref="C5:F21"/>
-    <mergeCell ref="G5:J21"/>
-    <mergeCell ref="K5:N21"/>
-    <mergeCell ref="O5:R21"/>
+  <mergeCells count="16">
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="G5:G21"/>
+    <mergeCell ref="H5:H21"/>
+    <mergeCell ref="I5:I21"/>
+    <mergeCell ref="J5:J21"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="C5:C21"/>
+    <mergeCell ref="D5:D21"/>
+    <mergeCell ref="E5:E21"/>
+    <mergeCell ref="F5:F21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/feature/JR/20251204_JR追記_レシート印字項目一覧 (MC修正_2.xlsx
+++ b/feature/JR/20251204_JR追記_レシート印字項目一覧 (MC修正_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MediaRoot\src\kyoshizawa\kywiki\feature\JR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B903F46E-8B02-4BA6-917F-5F53C06AA1FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40A6AB2E-B93A-4C0B-B47F-6FAD72747035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="6" xr2:uid="{EBC1795E-BD59-4226-93D9-E2CD2852C343}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="3" xr2:uid="{EBC1795E-BD59-4226-93D9-E2CD2852C343}"/>
   </bookViews>
   <sheets>
     <sheet name="印字項目_売上票(251204)" sheetId="3" r:id="rId1"/>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="186">
   <si>
     <t>＜売上票＞</t>
     <rPh sb="1" eb="3">
@@ -1435,12 +1435,93 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>(transaction)
+id_card -&gt; card_no</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ない？
+id_card -&gt; customer_card_no を追加</t>
+    <rPh sb="33" eb="35">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(transaction)
+id_card -&gt; card_exp_date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ない？
+(transaction)
+id_card -&gt; slip_number</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コードが見当たらない。。。。</t>
+    <rPh sb="4" eb="6">
+      <t>ミア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>処理通番</t>
+    <rPh sb="0" eb="2">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ツウバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コードが見当たらない。。。。
+おそらく slip_data.printingAuthId からとるようにする必要がある</t>
+    <rPh sb="4" eb="6">
+      <t>ミア</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コードが見当たらない。。。。
+おそらく slip_data.authSequenceNumber からとるようにする必要がある</t>
+    <rPh sb="4" eb="6">
+      <t>ミア</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ない？
+(transaction)
+qr -&gt; order_id を追加</t>
+    <rPh sb="34" eb="36">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ない？
+(transaction)
+qr -&gt; pay_type_name を追加</t>
+    <rPh sb="39" eb="41">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1531,6 +1612,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="游ゴシック"/>
@@ -1785,7 +1874,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1919,53 +2008,17 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -2030,6 +2083,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2041,6 +2097,28 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4098,9 +4176,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>2078462</xdr:colOff>
+      <xdr:colOff>2074652</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>4632686</xdr:rowOff>
+      <xdr:rowOff>4628876</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4148,9 +4226,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>2230489</xdr:colOff>
+      <xdr:colOff>2226679</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>3336112</xdr:rowOff>
+      <xdr:rowOff>3332302</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4198,9 +4276,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>2226571</xdr:colOff>
+      <xdr:colOff>2230381</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>4702884</xdr:rowOff>
+      <xdr:rowOff>4706694</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4257,9 +4335,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>2079115</xdr:colOff>
+      <xdr:colOff>2075305</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>58159</xdr:rowOff>
+      <xdr:rowOff>54349</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4316,9 +4394,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>2116418</xdr:colOff>
+      <xdr:colOff>2112608</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>3139851</xdr:rowOff>
+      <xdr:rowOff>3143661</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4375,9 +4453,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>2153970</xdr:colOff>
+      <xdr:colOff>2150160</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>3026483</xdr:rowOff>
+      <xdr:rowOff>3030293</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4760,9 +4838,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2460924</xdr:colOff>
+      <xdr:colOff>2457114</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>211856</xdr:rowOff>
+      <xdr:rowOff>208046</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4815,9 +4893,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2458720</xdr:colOff>
+      <xdr:colOff>2454910</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>211155</xdr:rowOff>
+      <xdr:rowOff>207345</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4870,9 +4948,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2645666</xdr:colOff>
+      <xdr:colOff>2649476</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>56355</xdr:rowOff>
+      <xdr:rowOff>60165</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4925,9 +5003,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>2536586</xdr:colOff>
+      <xdr:colOff>2532776</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>58260</xdr:rowOff>
+      <xdr:rowOff>54450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4980,9 +5058,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>2453723</xdr:colOff>
+      <xdr:colOff>2457533</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>18115</xdr:rowOff>
+      <xdr:rowOff>21925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5035,9 +5113,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>2416398</xdr:colOff>
+      <xdr:colOff>2420208</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>16985</xdr:rowOff>
+      <xdr:rowOff>20795</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5090,9 +5168,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>2422293</xdr:colOff>
+      <xdr:colOff>2418483</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>97490</xdr:rowOff>
+      <xdr:rowOff>93680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5145,7 +5223,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>2421541</xdr:colOff>
+      <xdr:colOff>2417731</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>79215</xdr:rowOff>
     </xdr:to>
@@ -5198,16 +5276,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>320675</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>92075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>535492</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2554456</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>47539</xdr:rowOff>
+      <xdr:rowOff>55159</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5247,16 +5325,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>155341</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>15875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>399327</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2418291</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>206375</xdr:rowOff>
+      <xdr:rowOff>210185</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5296,14 +5374,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>63669</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>446592</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2454126</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>34926</xdr:rowOff>
     </xdr:to>
@@ -5345,16 +5423,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>222016</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>165099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>469177</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2497666</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>84570</xdr:rowOff>
+      <xdr:rowOff>92190</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8408,8 +8486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D99F92E6-1551-4213-B3D6-3CE3DEF48664}">
   <dimension ref="A2:H39"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A3" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:XFD29"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A6" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -8475,26 +8553,26 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="25"/>
-      <c r="B12" s="63" t="s">
+      <c r="B12" s="51" t="s">
         <v>118</v>
       </c>
-      <c r="C12" s="63" t="s">
+      <c r="C12" s="51" t="s">
         <v>129</v>
       </c>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="61"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
     </row>
     <row r="13" spans="1:8" ht="36">
-      <c r="A13" s="66" t="s">
+      <c r="A13" s="54" t="s">
         <v>144</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C13" s="62" t="s">
+      <c r="C13" s="50" t="s">
         <v>161</v>
       </c>
       <c r="D13" s="24" t="s">
@@ -8503,7 +8581,7 @@
       <c r="E13" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="F13" s="61"/>
+      <c r="F13" s="49"/>
       <c r="G13" s="24" t="s">
         <v>132</v>
       </c>
@@ -8516,7 +8594,7 @@
       <c r="B14" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C14" s="62" t="s">
+      <c r="C14" s="50" t="s">
         <v>130</v>
       </c>
       <c r="D14" s="24" t="s">
@@ -8525,7 +8603,7 @@
       <c r="E14" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="F14" s="61"/>
+      <c r="F14" s="49"/>
       <c r="G14" s="24" t="s">
         <v>132</v>
       </c>
@@ -8538,44 +8616,44 @@
       <c r="B15" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C15" s="64" t="s">
+      <c r="C15" s="52" t="s">
         <v>133</v>
       </c>
-      <c r="D15" s="65" t="s">
-        <v>132</v>
-      </c>
-      <c r="E15" s="65" t="s">
-        <v>132</v>
-      </c>
-      <c r="F15" s="61"/>
-      <c r="G15" s="65" t="s">
-        <v>132</v>
-      </c>
-      <c r="H15" s="65" t="s">
+      <c r="D15" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="E15" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="F15" s="49"/>
+      <c r="G15" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="H15" s="53" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="36">
-      <c r="A16" s="66" t="s">
+      <c r="A16" s="54" t="s">
         <v>144</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C16" s="64" t="s">
+      <c r="C16" s="52" t="s">
         <v>137</v>
       </c>
-      <c r="D16" s="65" t="s">
-        <v>132</v>
-      </c>
-      <c r="E16" s="65" t="s">
-        <v>132</v>
-      </c>
-      <c r="F16" s="61"/>
-      <c r="G16" s="65" t="s">
-        <v>132</v>
-      </c>
-      <c r="H16" s="65" t="s">
+      <c r="D16" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="E16" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="F16" s="49"/>
+      <c r="G16" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="H16" s="53" t="s">
         <v>132</v>
       </c>
     </row>
@@ -8584,20 +8662,20 @@
       <c r="B17" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C17" s="64" t="s">
+      <c r="C17" s="52" t="s">
         <v>134</v>
       </c>
-      <c r="D17" s="65" t="s">
-        <v>132</v>
-      </c>
-      <c r="E17" s="65" t="s">
-        <v>132</v>
-      </c>
-      <c r="F17" s="61"/>
-      <c r="G17" s="65" t="s">
-        <v>132</v>
-      </c>
-      <c r="H17" s="65" t="s">
+      <c r="D17" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="E17" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="F17" s="49"/>
+      <c r="G17" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="H17" s="53" t="s">
         <v>132</v>
       </c>
     </row>
@@ -8606,20 +8684,20 @@
       <c r="B18" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C18" s="64" t="s">
+      <c r="C18" s="52" t="s">
         <v>135</v>
       </c>
-      <c r="D18" s="65" t="s">
-        <v>132</v>
-      </c>
-      <c r="E18" s="65" t="s">
-        <v>132</v>
-      </c>
-      <c r="F18" s="61"/>
-      <c r="G18" s="65" t="s">
-        <v>132</v>
-      </c>
-      <c r="H18" s="65" t="s">
+      <c r="D18" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="E18" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="F18" s="49"/>
+      <c r="G18" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="H18" s="53" t="s">
         <v>132</v>
       </c>
     </row>
@@ -8628,20 +8706,20 @@
       <c r="B19" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C19" s="64" t="s">
+      <c r="C19" s="52" t="s">
         <v>136</v>
       </c>
-      <c r="D19" s="65" t="s">
-        <v>132</v>
-      </c>
-      <c r="E19" s="65" t="s">
-        <v>132</v>
-      </c>
-      <c r="F19" s="61"/>
-      <c r="G19" s="65" t="s">
-        <v>132</v>
-      </c>
-      <c r="H19" s="65" t="s">
+      <c r="D19" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="E19" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="F19" s="49"/>
+      <c r="G19" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="H19" s="53" t="s">
         <v>132</v>
       </c>
     </row>
@@ -8650,20 +8728,20 @@
       <c r="B20" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="64" t="s">
+      <c r="C20" s="52" t="s">
         <v>138</v>
       </c>
-      <c r="D20" s="65" t="s">
-        <v>132</v>
-      </c>
-      <c r="E20" s="65" t="s">
-        <v>132</v>
-      </c>
-      <c r="F20" s="61"/>
-      <c r="G20" s="65" t="s">
-        <v>132</v>
-      </c>
-      <c r="H20" s="65" t="s">
+      <c r="D20" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="E20" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="F20" s="49"/>
+      <c r="G20" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="H20" s="53" t="s">
         <v>132</v>
       </c>
     </row>
@@ -8672,20 +8750,20 @@
       <c r="B21" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C21" s="64" t="s">
+      <c r="C21" s="52" t="s">
         <v>139</v>
       </c>
-      <c r="D21" s="65" t="s">
-        <v>132</v>
-      </c>
-      <c r="E21" s="65" t="s">
-        <v>132</v>
-      </c>
-      <c r="F21" s="61"/>
-      <c r="G21" s="65" t="s">
-        <v>132</v>
-      </c>
-      <c r="H21" s="65" t="s">
+      <c r="D21" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="E21" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="F21" s="49"/>
+      <c r="G21" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="H21" s="53" t="s">
         <v>132</v>
       </c>
     </row>
@@ -8694,7 +8772,7 @@
       <c r="B22" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C22" s="62" t="s">
+      <c r="C22" s="50" t="s">
         <v>140</v>
       </c>
       <c r="D22" s="24" t="s">
@@ -8703,7 +8781,7 @@
       <c r="E22" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="F22" s="61"/>
+      <c r="F22" s="49"/>
       <c r="G22" s="24" t="s">
         <v>132</v>
       </c>
@@ -8716,7 +8794,7 @@
       <c r="B23" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="62" t="s">
+      <c r="C23" s="50" t="s">
         <v>141</v>
       </c>
       <c r="D23" s="24" t="s">
@@ -8725,7 +8803,7 @@
       <c r="E23" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="F23" s="61"/>
+      <c r="F23" s="49"/>
       <c r="G23" s="24" t="s">
         <v>132</v>
       </c>
@@ -8738,7 +8816,7 @@
       <c r="B24" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="62" t="s">
+      <c r="C24" s="50" t="s">
         <v>142</v>
       </c>
       <c r="D24" s="24" t="s">
@@ -8747,7 +8825,7 @@
       <c r="E24" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="F24" s="61"/>
+      <c r="F24" s="49"/>
       <c r="G24" s="24" t="s">
         <v>132</v>
       </c>
@@ -8760,7 +8838,7 @@
       <c r="B25" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="62" t="s">
+      <c r="C25" s="50" t="s">
         <v>143</v>
       </c>
       <c r="D25" s="24" t="s">
@@ -8769,7 +8847,7 @@
       <c r="E25" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="F25" s="61"/>
+      <c r="F25" s="49"/>
       <c r="G25" s="24" t="s">
         <v>132</v>
       </c>
@@ -8782,38 +8860,38 @@
       <c r="B26" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="64" t="s">
+      <c r="C26" s="52" t="s">
         <v>139</v>
       </c>
-      <c r="D26" s="65" t="s">
-        <v>132</v>
-      </c>
-      <c r="E26" s="65" t="s">
-        <v>132</v>
-      </c>
-      <c r="F26" s="61"/>
-      <c r="G26" s="65" t="s">
-        <v>132</v>
-      </c>
-      <c r="H26" s="65" t="s">
+      <c r="D26" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="E26" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="F26" s="49"/>
+      <c r="G26" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="H26" s="53" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="36">
-      <c r="A27" s="66" t="s">
+      <c r="A27" s="54" t="s">
         <v>144</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C27" s="68"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="64" t="s">
+      <c r="C27" s="56"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="52" t="s">
         <v>159</v>
       </c>
-      <c r="H27" s="64" t="s">
+      <c r="H27" s="52" t="s">
         <v>159</v>
       </c>
     </row>
@@ -8822,7 +8900,7 @@
       <c r="B28" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="62" t="s">
+      <c r="C28" s="50" t="s">
         <v>146</v>
       </c>
       <c r="D28" s="24" t="s">
@@ -8831,7 +8909,7 @@
       <c r="E28" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="F28" s="61"/>
+      <c r="F28" s="49"/>
       <c r="G28" s="24" t="s">
         <v>132</v>
       </c>
@@ -8844,7 +8922,7 @@
       <c r="B29" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="62" t="s">
+      <c r="C29" s="50" t="s">
         <v>147</v>
       </c>
       <c r="D29" s="24" t="s">
@@ -8853,7 +8931,7 @@
       <c r="E29" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="F29" s="61"/>
+      <c r="F29" s="49"/>
       <c r="G29" s="24" t="s">
         <v>132</v>
       </c>
@@ -8875,7 +8953,7 @@
       <c r="E30" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="F30" s="61"/>
+      <c r="F30" s="49"/>
       <c r="G30" s="24" t="s">
         <v>132</v>
       </c>
@@ -8891,17 +8969,17 @@
       <c r="C31" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="D31" s="65" t="s">
-        <v>132</v>
-      </c>
-      <c r="E31" s="65" t="s">
-        <v>132</v>
-      </c>
-      <c r="F31" s="61"/>
-      <c r="G31" s="65" t="s">
-        <v>132</v>
-      </c>
-      <c r="H31" s="65" t="s">
+      <c r="D31" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="E31" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="F31" s="49"/>
+      <c r="G31" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="H31" s="53" t="s">
         <v>132</v>
       </c>
     </row>
@@ -8910,7 +8988,7 @@
       <c r="B32" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C32" s="62" t="s">
+      <c r="C32" s="50" t="s">
         <v>150</v>
       </c>
       <c r="D32" s="24" t="s">
@@ -8919,7 +8997,7 @@
       <c r="E32" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="F32" s="61"/>
+      <c r="F32" s="49"/>
       <c r="G32" s="24" t="s">
         <v>132</v>
       </c>
@@ -8935,17 +9013,17 @@
       <c r="C33" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="D33" s="65" t="s">
-        <v>132</v>
-      </c>
-      <c r="E33" s="65" t="s">
-        <v>132</v>
-      </c>
-      <c r="F33" s="61"/>
-      <c r="G33" s="65" t="s">
-        <v>132</v>
-      </c>
-      <c r="H33" s="65" t="s">
+      <c r="D33" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="E33" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="F33" s="49"/>
+      <c r="G33" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="H33" s="53" t="s">
         <v>132</v>
       </c>
     </row>
@@ -8954,7 +9032,7 @@
       <c r="B34" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C34" s="62" t="s">
+      <c r="C34" s="50" t="s">
         <v>152</v>
       </c>
       <c r="D34" s="24" t="s">
@@ -8963,7 +9041,7 @@
       <c r="E34" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="F34" s="61"/>
+      <c r="F34" s="49"/>
       <c r="G34" s="24" t="s">
         <v>132</v>
       </c>
@@ -8976,7 +9054,7 @@
       <c r="B35" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C35" s="62" t="s">
+      <c r="C35" s="50" t="s">
         <v>153</v>
       </c>
       <c r="D35" s="24" t="s">
@@ -8985,7 +9063,7 @@
       <c r="E35" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="F35" s="61"/>
+      <c r="F35" s="49"/>
       <c r="G35" s="24" t="s">
         <v>132</v>
       </c>
@@ -8998,7 +9076,7 @@
       <c r="B36" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C36" s="62" t="s">
+      <c r="C36" s="50" t="s">
         <v>167</v>
       </c>
       <c r="D36" s="24" t="s">
@@ -9007,7 +9085,7 @@
       <c r="E36" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="F36" s="61"/>
+      <c r="F36" s="49"/>
       <c r="G36" s="24" t="s">
         <v>132</v>
       </c>
@@ -9023,17 +9101,17 @@
       <c r="C37" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="D37" s="65" t="s">
-        <v>132</v>
-      </c>
-      <c r="E37" s="65" t="s">
-        <v>132</v>
-      </c>
-      <c r="F37" s="61"/>
-      <c r="G37" s="65" t="s">
-        <v>132</v>
-      </c>
-      <c r="H37" s="65" t="s">
+      <c r="D37" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="E37" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="F37" s="49"/>
+      <c r="G37" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="H37" s="53" t="s">
         <v>132</v>
       </c>
     </row>
@@ -9045,37 +9123,37 @@
       <c r="C38" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="D38" s="65" t="s">
-        <v>132</v>
-      </c>
-      <c r="E38" s="65" t="s">
-        <v>132</v>
-      </c>
-      <c r="F38" s="61"/>
-      <c r="G38" s="65" t="s">
-        <v>132</v>
-      </c>
-      <c r="H38" s="65" t="s">
+      <c r="D38" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="E38" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="F38" s="49"/>
+      <c r="G38" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="H38" s="53" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="54">
-      <c r="A39" s="66" t="s">
+      <c r="A39" s="54" t="s">
         <v>144</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C39" s="67"/>
+      <c r="C39" s="55"/>
       <c r="D39" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="E39" s="65"/>
-      <c r="F39" s="61"/>
-      <c r="G39" s="65" t="s">
+      <c r="E39" s="53"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="53" t="s">
         <v>160</v>
       </c>
-      <c r="H39" s="65"/>
+      <c r="H39" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -9093,8 +9171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0631C08A-B6FE-4CE8-B2E6-FDDE4E54CA39}">
   <dimension ref="A2:N31"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A16" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26:D26"/>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -9202,32 +9280,32 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="25"/>
-      <c r="B9" s="63" t="s">
+      <c r="B9" s="51" t="s">
         <v>118</v>
       </c>
-      <c r="C9" s="63" t="s">
+      <c r="C9" s="51" t="s">
         <v>129</v>
       </c>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="70"/>
-      <c r="K9" s="69"/>
-      <c r="L9" s="70"/>
-      <c r="M9" s="69"/>
-      <c r="N9" s="70"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="58"/>
     </row>
     <row r="10" spans="1:14" ht="36">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="54" t="s">
         <v>144</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C10" s="62" t="s">
+      <c r="C10" s="50" t="s">
         <v>161</v>
       </c>
       <c r="D10" s="24" t="s">
@@ -9253,22 +9331,22 @@
       <c r="N10" s="43"/>
     </row>
     <row r="11" spans="1:14" ht="36">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="77" t="s">
         <v>144</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="64" t="s">
+      <c r="C11" s="52" t="s">
         <v>147</v>
       </c>
-      <c r="D11" s="65" t="s">
-        <v>132</v>
-      </c>
-      <c r="E11" s="65" t="s">
-        <v>132</v>
-      </c>
-      <c r="F11" s="65" t="s">
+      <c r="D11" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="E11" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="F11" s="53" t="s">
         <v>132</v>
       </c>
       <c r="G11" s="40" t="s">
@@ -9287,7 +9365,7 @@
       <c r="B12" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C12" s="62" t="s">
+      <c r="C12" s="50" t="s">
         <v>130</v>
       </c>
       <c r="D12" s="24" t="s">
@@ -9343,19 +9421,19 @@
       <c r="N13" s="41"/>
     </row>
     <row r="14" spans="1:14" ht="36">
-      <c r="A14" s="66" t="s">
+      <c r="A14" s="54" t="s">
         <v>144</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C14" s="64" t="s">
+      <c r="C14" s="52" t="s">
         <v>137</v>
       </c>
-      <c r="D14" s="65" t="s">
-        <v>132</v>
-      </c>
-      <c r="E14" s="65" t="s">
+      <c r="D14" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="E14" s="53" t="s">
         <v>132</v>
       </c>
       <c r="F14" s="2" t="s">
@@ -9379,7 +9457,7 @@
       <c r="B15" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C15" s="64" t="s">
+      <c r="C15" s="52" t="s">
         <v>134</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -9499,7 +9577,7 @@
       <c r="B19" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C19" s="64" t="s">
+      <c r="C19" s="52" t="s">
         <v>139</v>
       </c>
       <c r="D19" s="2" t="s">
@@ -9529,7 +9607,7 @@
       <c r="B20" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C20" s="62" t="s">
+      <c r="C20" s="50" t="s">
         <v>140</v>
       </c>
       <c r="D20" s="24" t="s">
@@ -9559,26 +9637,26 @@
       <c r="B21" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="62" t="s">
+      <c r="C21" s="50" t="s">
         <v>163</v>
       </c>
-      <c r="D21" s="75" t="s">
+      <c r="D21" s="63" t="s">
         <v>174</v>
       </c>
-      <c r="E21" s="62" t="s">
+      <c r="E21" s="50" t="s">
         <v>163</v>
       </c>
-      <c r="F21" s="75" t="s">
+      <c r="F21" s="63" t="s">
         <v>174</v>
       </c>
-      <c r="G21" s="74" t="s">
+      <c r="G21" s="62" t="s">
         <v>163</v>
       </c>
       <c r="H21" s="43"/>
-      <c r="I21" s="84" t="s">
+      <c r="I21" s="73" t="s">
         <v>174</v>
       </c>
-      <c r="J21" s="85"/>
+      <c r="J21" s="74"/>
       <c r="K21" s="42"/>
       <c r="L21" s="43"/>
       <c r="M21" s="42"/>
@@ -9589,7 +9667,7 @@
       <c r="B22" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C22" s="75" t="s">
+      <c r="C22" s="63" t="s">
         <v>164</v>
       </c>
       <c r="D22" s="24" t="s">
@@ -9601,21 +9679,21 @@
       <c r="F22" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="G22" s="71"/>
-      <c r="H22" s="72"/>
-      <c r="I22" s="71"/>
-      <c r="J22" s="72"/>
-      <c r="K22" s="71"/>
-      <c r="L22" s="72"/>
-      <c r="M22" s="71"/>
-      <c r="N22" s="72"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="59"/>
+      <c r="J22" s="60"/>
+      <c r="K22" s="59"/>
+      <c r="L22" s="60"/>
+      <c r="M22" s="59"/>
+      <c r="N22" s="60"/>
     </row>
     <row r="23" spans="1:14" ht="42" customHeight="1">
       <c r="A23" s="25"/>
       <c r="B23" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C23" s="75" t="s">
+      <c r="C23" s="63" t="s">
         <v>165</v>
       </c>
       <c r="D23" s="24" t="s">
@@ -9651,25 +9729,25 @@
       <c r="D24" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E24" s="61"/>
-      <c r="F24" s="61"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
       <c r="G24" s="35" t="s">
         <v>132</v>
       </c>
       <c r="H24" s="37"/>
-      <c r="I24" s="71"/>
-      <c r="J24" s="72"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="60"/>
       <c r="K24" s="35"/>
       <c r="L24" s="37"/>
-      <c r="M24" s="71"/>
-      <c r="N24" s="72"/>
+      <c r="M24" s="59"/>
+      <c r="N24" s="60"/>
     </row>
     <row r="25" spans="1:14" ht="36">
       <c r="A25" s="25"/>
       <c r="B25" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="62" t="s">
+      <c r="C25" s="50" t="s">
         <v>167</v>
       </c>
       <c r="D25" s="24" t="s">
@@ -9702,11 +9780,11 @@
       <c r="C26" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="D26" s="65" t="s">
-        <v>132</v>
-      </c>
-      <c r="E26" s="61"/>
-      <c r="F26" s="61"/>
+      <c r="D26" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
       <c r="G26" s="35" t="s">
         <v>154</v>
       </c>
@@ -9731,90 +9809,90 @@
       <c r="D27" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="E27" s="61"/>
-      <c r="F27" s="61"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
       <c r="G27" s="35" t="s">
         <v>131</v>
       </c>
       <c r="H27" s="37"/>
-      <c r="I27" s="71"/>
-      <c r="J27" s="72"/>
+      <c r="I27" s="59"/>
+      <c r="J27" s="60"/>
       <c r="K27" s="35"/>
       <c r="L27" s="37"/>
-      <c r="M27" s="71"/>
-      <c r="N27" s="72"/>
+      <c r="M27" s="59"/>
+      <c r="N27" s="60"/>
     </row>
     <row r="28" spans="1:14" ht="36">
       <c r="A28" s="25"/>
       <c r="B28" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="62" t="s">
+      <c r="C28" s="50" t="s">
         <v>167</v>
       </c>
       <c r="D28" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="E28" s="61"/>
-      <c r="F28" s="61"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
       <c r="G28" s="42" t="s">
         <v>166</v>
       </c>
       <c r="H28" s="43"/>
-      <c r="I28" s="71"/>
-      <c r="J28" s="72"/>
+      <c r="I28" s="59"/>
+      <c r="J28" s="60"/>
       <c r="K28" s="42"/>
       <c r="L28" s="43"/>
-      <c r="M28" s="71"/>
-      <c r="N28" s="72"/>
+      <c r="M28" s="59"/>
+      <c r="N28" s="60"/>
     </row>
     <row r="29" spans="1:14" ht="36">
       <c r="A29" s="25"/>
       <c r="B29" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="62" t="s">
+      <c r="C29" s="50" t="s">
         <v>169</v>
       </c>
       <c r="D29" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="E29" s="62" t="s">
+      <c r="E29" s="50" t="s">
         <v>169</v>
       </c>
       <c r="F29" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="G29" s="71"/>
-      <c r="H29" s="72"/>
-      <c r="I29" s="71"/>
-      <c r="J29" s="72"/>
-      <c r="K29" s="71"/>
-      <c r="L29" s="72"/>
-      <c r="M29" s="73"/>
-      <c r="N29" s="73"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="59"/>
+      <c r="J29" s="60"/>
+      <c r="K29" s="59"/>
+      <c r="L29" s="60"/>
+      <c r="M29" s="61"/>
+      <c r="N29" s="61"/>
     </row>
     <row r="30" spans="1:14" ht="36">
       <c r="A30" s="25"/>
       <c r="B30" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C30" s="61"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="62" t="s">
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="50" t="s">
         <v>167</v>
       </c>
       <c r="F30" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="G30" s="71"/>
-      <c r="H30" s="72"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="60"/>
       <c r="I30" s="42" t="s">
         <v>166</v>
       </c>
       <c r="J30" s="43"/>
-      <c r="K30" s="71"/>
-      <c r="L30" s="72"/>
+      <c r="K30" s="59"/>
+      <c r="L30" s="60"/>
       <c r="M30" s="42" t="s">
         <v>166</v>
       </c>
@@ -9825,23 +9903,23 @@
       <c r="B31" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C31" s="61"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="61"/>
-      <c r="G31" s="74" t="s">
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="62" t="s">
         <v>170</v>
       </c>
       <c r="H31" s="43"/>
-      <c r="I31" s="74" t="s">
+      <c r="I31" s="62" t="s">
         <v>170</v>
       </c>
       <c r="J31" s="43"/>
-      <c r="K31" s="74" t="s">
+      <c r="K31" s="62" t="s">
         <v>170</v>
       </c>
       <c r="L31" s="43"/>
-      <c r="M31" s="74" t="s">
+      <c r="M31" s="62" t="s">
         <v>170</v>
       </c>
       <c r="N31" s="43"/>
@@ -9956,8 +10034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B381323B-FCE1-4D49-A95C-E87D6921B120}">
   <dimension ref="A2:G40"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23:F23"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40:F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -9970,158 +10048,158 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:6">
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="D2" s="53" t="s">
+      <c r="D2" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="E2" s="53" t="s">
+      <c r="E2" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="F2" s="76" t="s">
+      <c r="F2" s="64" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="3" spans="3:6">
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="77"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="65"/>
     </row>
     <row r="4" spans="3:6">
       <c r="C4" s="44"/>
       <c r="D4" s="44"/>
       <c r="E4" s="44"/>
-      <c r="F4" s="78"/>
+      <c r="F4" s="66"/>
     </row>
     <row r="5" spans="3:6">
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="79"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="67"/>
     </row>
     <row r="6" spans="3:6">
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="79"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="67"/>
     </row>
     <row r="7" spans="3:6">
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="79"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="67"/>
     </row>
     <row r="8" spans="3:6">
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="79"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="67"/>
     </row>
     <row r="9" spans="3:6">
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="79"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="67"/>
     </row>
     <row r="10" spans="3:6">
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="79"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="67"/>
     </row>
     <row r="11" spans="3:6">
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="79"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="67"/>
     </row>
     <row r="12" spans="3:6">
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="79"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="67"/>
     </row>
     <row r="13" spans="3:6">
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="79"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="67"/>
     </row>
     <row r="14" spans="3:6">
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="79"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="67"/>
     </row>
     <row r="15" spans="3:6">
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="79"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="67"/>
     </row>
     <row r="16" spans="3:6">
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="79"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="67"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="79"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="67"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="79"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="67"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="79"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="67"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="80"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="68"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="F21" s="81"/>
-      <c r="G21" s="81"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="69"/>
     </row>
     <row r="22" spans="1:7">
       <c r="B22" t="s">
         <v>120</v>
       </c>
-      <c r="F22" s="81"/>
-      <c r="G22" s="81"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="69"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="25"/>
-      <c r="B23" s="63" t="s">
+      <c r="B23" s="51" t="s">
         <v>118</v>
       </c>
-      <c r="C23" s="63" t="s">
+      <c r="C23" s="51" t="s">
         <v>129</v>
       </c>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="61"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
     </row>
     <row r="24" spans="1:7" ht="36">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="54" t="s">
         <v>144</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C24" s="62" t="s">
+      <c r="C24" s="50" t="s">
         <v>161</v>
       </c>
       <c r="D24" s="24" t="s">
@@ -10139,7 +10217,7 @@
       <c r="B25" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C25" s="62" t="s">
+      <c r="C25" s="50" t="s">
         <v>130</v>
       </c>
       <c r="D25" s="24" t="s">
@@ -10171,19 +10249,19 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="36">
-      <c r="A27" s="66" t="s">
+      <c r="A27" s="54" t="s">
         <v>144</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C27" s="64" t="s">
+      <c r="C27" s="52" t="s">
         <v>137</v>
       </c>
-      <c r="D27" s="65" t="s">
-        <v>132</v>
-      </c>
-      <c r="E27" s="65" t="s">
+      <c r="D27" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="E27" s="53" t="s">
         <v>132</v>
       </c>
       <c r="F27" s="2" t="s">
@@ -10195,7 +10273,7 @@
       <c r="B28" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C28" s="64" t="s">
+      <c r="C28" s="52" t="s">
         <v>134</v>
       </c>
       <c r="D28" s="2" t="s">
@@ -10267,7 +10345,7 @@
       <c r="B32" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C32" s="64" t="s">
+      <c r="C32" s="52" t="s">
         <v>139</v>
       </c>
       <c r="D32" s="2" t="s">
@@ -10285,7 +10363,7 @@
       <c r="B33" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C33" s="62" t="s">
+      <c r="C33" s="50" t="s">
         <v>140</v>
       </c>
       <c r="D33" s="24" t="s">
@@ -10303,16 +10381,16 @@
       <c r="B34" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="62" t="s">
+      <c r="C34" s="50" t="s">
         <v>171</v>
       </c>
-      <c r="D34" s="75" t="s">
+      <c r="D34" s="63" t="s">
         <v>175</v>
       </c>
-      <c r="E34" s="62" t="s">
+      <c r="E34" s="50" t="s">
         <v>171</v>
       </c>
-      <c r="F34" s="75" t="s">
+      <c r="F34" s="63" t="s">
         <v>175</v>
       </c>
     </row>
@@ -10321,7 +10399,7 @@
       <c r="B35" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="82" t="s">
+      <c r="C35" s="71" t="s">
         <v>172</v>
       </c>
       <c r="D35" s="2" t="s">
@@ -10339,7 +10417,7 @@
       <c r="B36" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C36" s="62" t="s">
+      <c r="C36" s="50" t="s">
         <v>147</v>
       </c>
       <c r="D36" s="24" t="s">
@@ -10357,7 +10435,7 @@
       <c r="B37" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C37" s="83" t="s">
+      <c r="C37" s="72" t="s">
         <v>173</v>
       </c>
       <c r="D37" s="2" t="s">
@@ -10381,15 +10459,15 @@
       <c r="D38" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E38" s="61"/>
-      <c r="F38" s="61"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="49"/>
     </row>
     <row r="39" spans="1:6" ht="36">
       <c r="A39" s="25"/>
       <c r="B39" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C39" s="62" t="s">
+      <c r="C39" s="50" t="s">
         <v>167</v>
       </c>
       <c r="D39" s="24" t="s">
@@ -10410,13 +10488,13 @@
       <c r="C40" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="D40" s="65" t="s">
-        <v>132</v>
-      </c>
-      <c r="E40" s="65" t="s">
-        <v>132</v>
-      </c>
-      <c r="F40" s="65" t="s">
+      <c r="D40" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="E40" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="F40" s="53" t="s">
         <v>132</v>
       </c>
     </row>
@@ -10442,10 +10520,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A3:J41"/>
+  <dimension ref="A3:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView topLeftCell="A33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18"/>
@@ -10464,40 +10542,40 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:10" ht="18" customHeight="1">
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="D3" s="53" t="s">
+      <c r="D3" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="E3" s="53" t="s">
+      <c r="E3" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="F3" s="53" t="s">
+      <c r="F3" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="G3" s="53" t="s">
+      <c r="G3" s="47" t="s">
         <v>99</v>
       </c>
-      <c r="H3" s="53" t="s">
+      <c r="H3" s="47" t="s">
         <v>100</v>
       </c>
-      <c r="I3" s="53" t="s">
+      <c r="I3" s="47" t="s">
         <v>101</v>
       </c>
-      <c r="J3" s="53" t="s">
+      <c r="J3" s="64" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="4" spans="3:10">
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="65"/>
     </row>
     <row r="5" spans="3:10">
       <c r="C5" s="44"/>
@@ -10507,167 +10585,167 @@
       <c r="G5" s="44"/>
       <c r="H5" s="44"/>
       <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
+      <c r="J5" s="66"/>
     </row>
     <row r="6" spans="3:10">
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="67"/>
     </row>
     <row r="7" spans="3:10">
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="67"/>
     </row>
     <row r="8" spans="3:10">
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="67"/>
     </row>
     <row r="9" spans="3:10">
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="67"/>
     </row>
     <row r="10" spans="3:10">
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="47"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="67"/>
     </row>
     <row r="11" spans="3:10">
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="47"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="67"/>
     </row>
     <row r="12" spans="3:10">
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="47"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="67"/>
     </row>
     <row r="13" spans="3:10">
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="47"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="67"/>
     </row>
     <row r="14" spans="3:10">
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="47"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="67"/>
     </row>
     <row r="15" spans="3:10">
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="67"/>
     </row>
     <row r="16" spans="3:10">
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="67"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="47"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="67"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="47"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="67"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="47"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="67"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="47"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="67"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="C21" s="50"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="50"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="68"/>
     </row>
     <row r="22" spans="1:10" ht="18" customHeight="1">
       <c r="B22" t="s">
@@ -10679,28 +10757,28 @@
       <c r="F22"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="B23" s="63" t="s">
+      <c r="B23" s="51" t="s">
         <v>118</v>
       </c>
-      <c r="C23" s="63" t="s">
+      <c r="C23" s="51" t="s">
         <v>129</v>
       </c>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="61"/>
-      <c r="I23" s="61"/>
-      <c r="J23" s="61"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="49"/>
     </row>
     <row r="24" spans="1:10" customFormat="1" ht="36">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="54" t="s">
         <v>144</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C24" s="62" t="s">
+      <c r="C24" s="50" t="s">
         <v>161</v>
       </c>
       <c r="D24" s="24" t="s">
@@ -10725,226 +10803,553 @@
         <v>132</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" ht="36">
+      <c r="A25" s="76"/>
       <c r="B25" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="C25" s="50" t="s">
+        <v>130</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="F25" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="G25" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="H25" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="I25" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J25" s="24" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="36">
+      <c r="A26" s="76"/>
       <c r="B26" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="C26" s="70" t="s">
+        <v>133</v>
+      </c>
+      <c r="D26" s="75" t="s">
+        <v>168</v>
+      </c>
+      <c r="E26" s="75" t="s">
+        <v>168</v>
+      </c>
+      <c r="F26" s="75" t="s">
+        <v>168</v>
+      </c>
+      <c r="G26" s="75" t="s">
+        <v>168</v>
+      </c>
+      <c r="H26" s="75" t="s">
+        <v>168</v>
+      </c>
+      <c r="I26" s="75" t="s">
+        <v>168</v>
+      </c>
+      <c r="J26" s="75" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" customFormat="1" ht="36">
+      <c r="A27" s="54" t="s">
+        <v>144</v>
+      </c>
       <c r="B27" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C27" s="52" t="s">
+        <v>137</v>
+      </c>
+      <c r="D27" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="E27" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="36">
+      <c r="A28" s="76"/>
+      <c r="B28" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="B28" s="2" t="s">
+      <c r="C28" s="70" t="s">
+        <v>134</v>
+      </c>
+      <c r="D28" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="E28" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="36">
+      <c r="A29" s="76"/>
+      <c r="B29" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="B29" s="2" t="s">
+      <c r="C29" s="70" t="s">
+        <v>135</v>
+      </c>
+      <c r="D29" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="E29" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="36">
+      <c r="A30" s="76"/>
+      <c r="B30" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="B30" s="2" t="s">
+      <c r="C30" s="70" t="s">
+        <v>136</v>
+      </c>
+      <c r="D30" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="E30" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="36">
+      <c r="A31" s="76"/>
+      <c r="B31" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="B31" s="2" t="s">
+      <c r="C31" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="D31" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="E31" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="36">
+      <c r="A32" s="76"/>
+      <c r="B32" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="B32" s="2" t="s">
+      <c r="C32" s="70" t="s">
+        <v>139</v>
+      </c>
+      <c r="D32" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="E32" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="36">
+      <c r="A33" s="76"/>
+      <c r="B33" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="21"/>
-    </row>
-    <row r="33" spans="2:10">
-      <c r="B33" s="2" t="s">
+      <c r="C33" s="78" t="s">
+        <v>140</v>
+      </c>
+      <c r="D33" s="79" t="s">
+        <v>132</v>
+      </c>
+      <c r="E33" s="79" t="s">
+        <v>132</v>
+      </c>
+      <c r="F33" s="79" t="s">
+        <v>132</v>
+      </c>
+      <c r="G33" s="79" t="s">
+        <v>132</v>
+      </c>
+      <c r="H33" s="79" t="s">
+        <v>132</v>
+      </c>
+      <c r="I33" s="79" t="s">
+        <v>132</v>
+      </c>
+      <c r="J33" s="79" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="36">
+      <c r="A34" s="76"/>
+      <c r="B34" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
-    </row>
-    <row r="34" spans="2:10">
-      <c r="B34" s="2" t="s">
+      <c r="C34" s="50" t="s">
+        <v>176</v>
+      </c>
+      <c r="D34" s="63" t="s">
+        <v>177</v>
+      </c>
+      <c r="E34" s="50" t="s">
+        <v>176</v>
+      </c>
+      <c r="F34" s="63" t="s">
+        <v>177</v>
+      </c>
+      <c r="G34" s="50" t="s">
+        <v>176</v>
+      </c>
+      <c r="H34" s="63" t="s">
+        <v>177</v>
+      </c>
+      <c r="I34" s="50" t="s">
+        <v>176</v>
+      </c>
+      <c r="J34" s="63" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="36">
+      <c r="A35" s="76"/>
+      <c r="B35" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-    </row>
-    <row r="35" spans="2:10">
-      <c r="B35" s="2" t="s">
+      <c r="C35" s="70" t="s">
+        <v>178</v>
+      </c>
+      <c r="D35" s="75" t="s">
+        <v>132</v>
+      </c>
+      <c r="E35" s="75" t="s">
+        <v>132</v>
+      </c>
+      <c r="F35" s="75" t="s">
+        <v>132</v>
+      </c>
+      <c r="G35" s="75" t="s">
+        <v>132</v>
+      </c>
+      <c r="H35" s="75" t="s">
+        <v>132</v>
+      </c>
+      <c r="I35" s="75" t="s">
+        <v>132</v>
+      </c>
+      <c r="J35" s="75" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="54">
+      <c r="A36" s="76"/>
+      <c r="B36" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-    </row>
-    <row r="36" spans="2:10">
-      <c r="B36" s="2" t="s">
+      <c r="C36" s="71" t="s">
+        <v>179</v>
+      </c>
+      <c r="D36" s="75" t="s">
+        <v>132</v>
+      </c>
+      <c r="E36" s="75" t="s">
+        <v>132</v>
+      </c>
+      <c r="F36" s="75" t="s">
+        <v>132</v>
+      </c>
+      <c r="G36" s="75" t="s">
+        <v>132</v>
+      </c>
+      <c r="H36" s="75" t="s">
+        <v>132</v>
+      </c>
+      <c r="I36" s="75" t="s">
+        <v>132</v>
+      </c>
+      <c r="J36" s="75" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="54">
+      <c r="A37" s="76"/>
+      <c r="B37" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="21"/>
-    </row>
-    <row r="37" spans="2:10">
-      <c r="B37" s="2" t="s">
+      <c r="C37" s="80"/>
+      <c r="D37" s="80"/>
+      <c r="E37" s="82" t="s">
+        <v>182</v>
+      </c>
+      <c r="F37" s="82" t="s">
+        <v>182</v>
+      </c>
+      <c r="G37" s="80"/>
+      <c r="H37" s="80"/>
+      <c r="I37" s="81" t="s">
+        <v>180</v>
+      </c>
+      <c r="J37" s="81" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="72">
+      <c r="A38" s="76"/>
+      <c r="B38" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C38" s="80"/>
+      <c r="D38" s="80"/>
+      <c r="E38" s="82" t="s">
+        <v>183</v>
+      </c>
+      <c r="F38" s="82" t="s">
+        <v>183</v>
+      </c>
+      <c r="G38" s="80"/>
+      <c r="H38" s="80"/>
+      <c r="I38" s="81" t="s">
+        <v>180</v>
+      </c>
+      <c r="J38" s="81" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="36">
+      <c r="A39" s="76"/>
+      <c r="B39" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="21"/>
-      <c r="J37" s="21"/>
-    </row>
-    <row r="38" spans="2:10">
-      <c r="B38" s="2" t="s">
+      <c r="C39" s="50" t="s">
+        <v>147</v>
+      </c>
+      <c r="D39" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="E39" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="F39" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="G39" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="H39" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="I39" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J39" s="24" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="54">
+      <c r="A40" s="76"/>
+      <c r="B40" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-    </row>
-    <row r="39" spans="2:10">
-      <c r="B39" s="2" t="s">
+      <c r="C40" s="72" t="s">
+        <v>173</v>
+      </c>
+      <c r="D40" s="75" t="s">
+        <v>132</v>
+      </c>
+      <c r="E40" s="75" t="s">
+        <v>132</v>
+      </c>
+      <c r="F40" s="75" t="s">
+        <v>132</v>
+      </c>
+      <c r="G40" s="75" t="s">
+        <v>132</v>
+      </c>
+      <c r="H40" s="75" t="s">
+        <v>132</v>
+      </c>
+      <c r="I40" s="75" t="s">
+        <v>132</v>
+      </c>
+      <c r="J40" s="75" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="36">
+      <c r="A41" s="76"/>
+      <c r="B41" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-    </row>
-    <row r="40" spans="2:10">
-      <c r="B40" s="2" t="s">
+      <c r="C41" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="D41" s="75" t="s">
+        <v>132</v>
+      </c>
+      <c r="E41" s="75" t="s">
+        <v>132</v>
+      </c>
+      <c r="F41" s="75" t="s">
+        <v>132</v>
+      </c>
+      <c r="G41" s="80"/>
+      <c r="H41" s="80"/>
+      <c r="I41" s="80"/>
+      <c r="J41" s="80"/>
+    </row>
+    <row r="42" spans="1:10" ht="36">
+      <c r="A42" s="76"/>
+      <c r="B42" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="21"/>
-      <c r="J40" s="21"/>
-    </row>
-    <row r="41" spans="2:10">
-      <c r="B41" s="2" t="s">
+      <c r="C42" s="78" t="s">
+        <v>167</v>
+      </c>
+      <c r="D42" s="79" t="s">
+        <v>132</v>
+      </c>
+      <c r="E42" s="79" t="s">
+        <v>132</v>
+      </c>
+      <c r="F42" s="79" t="s">
+        <v>132</v>
+      </c>
+      <c r="G42" s="79" t="s">
+        <v>132</v>
+      </c>
+      <c r="H42" s="79" t="s">
+        <v>132</v>
+      </c>
+      <c r="I42" s="79" t="s">
+        <v>132</v>
+      </c>
+      <c r="J42" s="79" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="36">
+      <c r="A43" s="76"/>
+      <c r="B43" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
+      <c r="C43" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="D43" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="E43" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="F43" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="G43" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="H43" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="I43" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="J43" s="53" t="s">
+        <v>132</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -10974,757 +11379,461 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CC7071F-43D3-4E2C-981C-54D3FE1CC6E7}">
-  <dimension ref="A2:Q37"/>
+  <dimension ref="A2:F39"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="18.69921875" customWidth="1"/>
+    <col min="2" max="2" width="18.69921875" customWidth="1"/>
+    <col min="3" max="3" width="36.796875" customWidth="1"/>
+    <col min="4" max="4" width="37.69921875" customWidth="1"/>
+    <col min="5" max="5" width="34.5" customWidth="1"/>
+    <col min="6" max="6" width="36.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17">
-      <c r="B2" s="53" t="s">
+    <row r="2" spans="3:6">
+      <c r="C2" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="53" t="s">
+      <c r="D2" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="53" t="s">
+      <c r="E2" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="53" t="s">
+      <c r="F2" s="64" t="s">
         <v>104</v>
       </c>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="55"/>
-    </row>
-    <row r="3" spans="2:17">
-      <c r="B3" s="56"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="57"/>
-      <c r="P3" s="57"/>
-      <c r="Q3" s="58"/>
-    </row>
-    <row r="4" spans="2:17">
-      <c r="B4" s="44"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="46"/>
-    </row>
-    <row r="5" spans="2:17">
-      <c r="B5" s="47"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="48"/>
-      <c r="P5" s="48"/>
-      <c r="Q5" s="49"/>
-    </row>
-    <row r="6" spans="2:17">
-      <c r="B6" s="47"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="48"/>
-      <c r="P6" s="48"/>
-      <c r="Q6" s="49"/>
-    </row>
-    <row r="7" spans="2:17">
-      <c r="B7" s="47"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="49"/>
-      <c r="N7" s="47"/>
-      <c r="O7" s="48"/>
-      <c r="P7" s="48"/>
-      <c r="Q7" s="49"/>
-    </row>
-    <row r="8" spans="2:17">
-      <c r="B8" s="47"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="48"/>
-      <c r="Q8" s="49"/>
-    </row>
-    <row r="9" spans="2:17">
-      <c r="B9" s="47"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="49"/>
-      <c r="N9" s="47"/>
-      <c r="O9" s="48"/>
-      <c r="P9" s="48"/>
-      <c r="Q9" s="49"/>
-    </row>
-    <row r="10" spans="2:17">
-      <c r="B10" s="47"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="48"/>
-      <c r="M10" s="49"/>
-      <c r="N10" s="47"/>
-      <c r="O10" s="48"/>
-      <c r="P10" s="48"/>
-      <c r="Q10" s="49"/>
-    </row>
-    <row r="11" spans="2:17">
-      <c r="B11" s="47"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="49"/>
-      <c r="N11" s="47"/>
-      <c r="O11" s="48"/>
-      <c r="P11" s="48"/>
-      <c r="Q11" s="49"/>
-    </row>
-    <row r="12" spans="2:17">
-      <c r="B12" s="47"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="49"/>
-      <c r="N12" s="47"/>
-      <c r="O12" s="48"/>
-      <c r="P12" s="48"/>
-      <c r="Q12" s="49"/>
-    </row>
-    <row r="13" spans="2:17">
-      <c r="B13" s="47"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="49"/>
-      <c r="N13" s="47"/>
-      <c r="O13" s="48"/>
-      <c r="P13" s="48"/>
-      <c r="Q13" s="49"/>
-    </row>
-    <row r="14" spans="2:17">
-      <c r="B14" s="47"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="49"/>
-      <c r="N14" s="47"/>
-      <c r="O14" s="48"/>
-      <c r="P14" s="48"/>
-      <c r="Q14" s="49"/>
-    </row>
-    <row r="15" spans="2:17">
-      <c r="B15" s="47"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="48"/>
-      <c r="M15" s="49"/>
-      <c r="N15" s="47"/>
-      <c r="O15" s="48"/>
-      <c r="P15" s="48"/>
-      <c r="Q15" s="49"/>
-    </row>
-    <row r="16" spans="2:17">
-      <c r="B16" s="47"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="48"/>
-      <c r="M16" s="49"/>
-      <c r="N16" s="47"/>
-      <c r="O16" s="48"/>
-      <c r="P16" s="48"/>
-      <c r="Q16" s="49"/>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="B17" s="47"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="48"/>
-      <c r="L17" s="48"/>
-      <c r="M17" s="49"/>
-      <c r="N17" s="47"/>
-      <c r="O17" s="48"/>
-      <c r="P17" s="48"/>
-      <c r="Q17" s="49"/>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="B18" s="47"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="47"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="48"/>
-      <c r="M18" s="49"/>
-      <c r="N18" s="47"/>
-      <c r="O18" s="48"/>
-      <c r="P18" s="48"/>
-      <c r="Q18" s="49"/>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="B19" s="47"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="48"/>
-      <c r="M19" s="49"/>
-      <c r="N19" s="47"/>
-      <c r="O19" s="48"/>
-      <c r="P19" s="48"/>
-      <c r="Q19" s="49"/>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="B20" s="50"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="50"/>
-      <c r="K20" s="51"/>
-      <c r="L20" s="51"/>
-      <c r="M20" s="52"/>
-      <c r="N20" s="50"/>
-      <c r="O20" s="51"/>
-      <c r="P20" s="51"/>
-      <c r="Q20" s="52"/>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="A22" t="s">
+    </row>
+    <row r="3" spans="3:6">
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="65"/>
+    </row>
+    <row r="4" spans="3:6">
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="66"/>
+    </row>
+    <row r="5" spans="3:6">
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="67"/>
+    </row>
+    <row r="6" spans="3:6">
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="67"/>
+    </row>
+    <row r="7" spans="3:6">
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="67"/>
+    </row>
+    <row r="8" spans="3:6">
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="67"/>
+    </row>
+    <row r="9" spans="3:6">
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="67"/>
+    </row>
+    <row r="10" spans="3:6">
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="67"/>
+    </row>
+    <row r="11" spans="3:6">
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="67"/>
+    </row>
+    <row r="12" spans="3:6">
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="67"/>
+    </row>
+    <row r="13" spans="3:6">
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="67"/>
+    </row>
+    <row r="14" spans="3:6">
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="67"/>
+    </row>
+    <row r="15" spans="3:6">
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="67"/>
+    </row>
+    <row r="16" spans="3:6">
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="67"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="67"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="67"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="67"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="68"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="B22" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="1:6">
+      <c r="B23" s="51" t="s">
         <v>118</v>
       </c>
-      <c r="B23" s="60"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="60"/>
-      <c r="H23" s="60"/>
-      <c r="I23" s="60"/>
-      <c r="J23" s="60"/>
-      <c r="K23" s="60"/>
-      <c r="L23" s="60"/>
-      <c r="M23" s="60"/>
-      <c r="N23" s="60"/>
-      <c r="O23" s="60"/>
-      <c r="P23" s="60"/>
-      <c r="Q23" s="60"/>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="A24" s="2" t="s">
+      <c r="C23" s="51" t="s">
+        <v>129</v>
+      </c>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
+    </row>
+    <row r="24" spans="1:6" ht="36">
+      <c r="A24" s="54" t="s">
+        <v>144</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C24" s="50" t="s">
+        <v>161</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="F24" s="24" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="36">
+      <c r="A25" s="25"/>
+      <c r="B25" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B24" s="59"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="59"/>
-      <c r="I24" s="59"/>
-      <c r="J24" s="59"/>
-      <c r="K24" s="59"/>
-      <c r="L24" s="59"/>
-      <c r="M24" s="59"/>
-      <c r="N24" s="59"/>
-      <c r="O24" s="59"/>
-      <c r="P24" s="59"/>
-      <c r="Q24" s="59"/>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="A25" s="2" t="s">
+      <c r="C25" s="78" t="s">
+        <v>130</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="F25" s="24" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="36">
+      <c r="A26" s="25"/>
+      <c r="B26" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B25" s="60"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="60"/>
-      <c r="H25" s="60"/>
-      <c r="I25" s="60"/>
-      <c r="J25" s="60"/>
-      <c r="K25" s="60"/>
-      <c r="L25" s="60"/>
-      <c r="M25" s="60"/>
-      <c r="N25" s="60"/>
-      <c r="O25" s="60"/>
-      <c r="P25" s="60"/>
-      <c r="Q25" s="60"/>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="A26" s="2" t="s">
+      <c r="C26" s="70" t="s">
+        <v>133</v>
+      </c>
+      <c r="D26" s="75" t="s">
+        <v>132</v>
+      </c>
+      <c r="E26" s="75" t="s">
+        <v>132</v>
+      </c>
+      <c r="F26" s="75" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="36">
+      <c r="A27" s="54" t="s">
+        <v>144</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C27" s="52" t="s">
+        <v>137</v>
+      </c>
+      <c r="D27" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="E27" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="36">
+      <c r="A28" s="25"/>
+      <c r="B28" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B26" s="60"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="60"/>
-      <c r="H26" s="60"/>
-      <c r="I26" s="60"/>
-      <c r="J26" s="60"/>
-      <c r="K26" s="60"/>
-      <c r="L26" s="60"/>
-      <c r="M26" s="60"/>
-      <c r="N26" s="60"/>
-      <c r="O26" s="60"/>
-      <c r="P26" s="60"/>
-      <c r="Q26" s="60"/>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="A27" s="2" t="s">
+      <c r="C28" s="70" t="s">
+        <v>134</v>
+      </c>
+      <c r="D28" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="E28" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="36">
+      <c r="A29" s="25"/>
+      <c r="B29" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B27" s="60"/>
-      <c r="C27" s="60"/>
-      <c r="D27" s="60"/>
-      <c r="E27" s="60"/>
-      <c r="F27" s="60"/>
-      <c r="G27" s="60"/>
-      <c r="H27" s="60"/>
-      <c r="I27" s="60"/>
-      <c r="J27" s="60"/>
-      <c r="K27" s="60"/>
-      <c r="L27" s="60"/>
-      <c r="M27" s="60"/>
-      <c r="N27" s="60"/>
-      <c r="O27" s="60"/>
-      <c r="P27" s="60"/>
-      <c r="Q27" s="60"/>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="A28" s="2" t="s">
+      <c r="C29" s="70" t="s">
+        <v>135</v>
+      </c>
+      <c r="D29" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="E29" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="36">
+      <c r="A30" s="25"/>
+      <c r="B30" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B28" s="60"/>
-      <c r="C28" s="60"/>
-      <c r="D28" s="60"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="60"/>
-      <c r="G28" s="60"/>
-      <c r="H28" s="60"/>
-      <c r="I28" s="60"/>
-      <c r="J28" s="60"/>
-      <c r="K28" s="60"/>
-      <c r="L28" s="60"/>
-      <c r="M28" s="60"/>
-      <c r="N28" s="60"/>
-      <c r="O28" s="60"/>
-      <c r="P28" s="60"/>
-      <c r="Q28" s="60"/>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="A29" s="2" t="s">
+      <c r="C30" s="70" t="s">
+        <v>136</v>
+      </c>
+      <c r="D30" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="E30" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="36">
+      <c r="A31" s="25"/>
+      <c r="B31" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="60"/>
-      <c r="C29" s="60"/>
-      <c r="D29" s="60"/>
-      <c r="E29" s="60"/>
-      <c r="F29" s="60"/>
-      <c r="G29" s="60"/>
-      <c r="H29" s="60"/>
-      <c r="I29" s="60"/>
-      <c r="J29" s="60"/>
-      <c r="K29" s="60"/>
-      <c r="L29" s="60"/>
-      <c r="M29" s="60"/>
-      <c r="N29" s="60"/>
-      <c r="O29" s="60"/>
-      <c r="P29" s="60"/>
-      <c r="Q29" s="60"/>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="A30" s="2" t="s">
+      <c r="C31" s="70" t="s">
+        <v>138</v>
+      </c>
+      <c r="D31" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="E31" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="36">
+      <c r="A32" s="25"/>
+      <c r="B32" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B30" s="60"/>
-      <c r="C30" s="60"/>
-      <c r="D30" s="60"/>
-      <c r="E30" s="60"/>
-      <c r="F30" s="60"/>
-      <c r="G30" s="60"/>
-      <c r="H30" s="60"/>
-      <c r="I30" s="60"/>
-      <c r="J30" s="60"/>
-      <c r="K30" s="60"/>
-      <c r="L30" s="60"/>
-      <c r="M30" s="60"/>
-      <c r="N30" s="60"/>
-      <c r="O30" s="60"/>
-      <c r="P30" s="60"/>
-      <c r="Q30" s="60"/>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="A31" s="2" t="s">
+      <c r="C32" s="70" t="s">
+        <v>139</v>
+      </c>
+      <c r="D32" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="E32" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="36">
+      <c r="A33" s="25"/>
+      <c r="B33" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B31" s="59"/>
-      <c r="C31" s="59"/>
-      <c r="D31" s="59"/>
-      <c r="E31" s="59"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="59"/>
-      <c r="H31" s="59"/>
-      <c r="I31" s="59"/>
-      <c r="J31" s="59"/>
-      <c r="K31" s="59"/>
-      <c r="L31" s="59"/>
-      <c r="M31" s="59"/>
-      <c r="N31" s="59"/>
-      <c r="O31" s="59"/>
-      <c r="P31" s="59"/>
-      <c r="Q31" s="59"/>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="A32" s="2" t="s">
+      <c r="C33" s="78" t="s">
+        <v>140</v>
+      </c>
+      <c r="D33" s="79" t="s">
+        <v>132</v>
+      </c>
+      <c r="E33" s="79" t="s">
+        <v>132</v>
+      </c>
+      <c r="F33" s="79" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="54">
+      <c r="A34" s="25"/>
+      <c r="B34" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="60"/>
-      <c r="C32" s="60"/>
-      <c r="D32" s="60"/>
-      <c r="E32" s="60"/>
-      <c r="F32" s="60"/>
-      <c r="G32" s="60"/>
-      <c r="H32" s="60"/>
-      <c r="I32" s="60"/>
-      <c r="J32" s="60"/>
-      <c r="K32" s="60"/>
-      <c r="L32" s="60"/>
-      <c r="M32" s="60"/>
-      <c r="N32" s="60"/>
-      <c r="O32" s="60"/>
-      <c r="P32" s="60"/>
-      <c r="Q32" s="60"/>
-    </row>
-    <row r="33" spans="1:17">
-      <c r="A33" s="2" t="s">
+      <c r="C34" s="72" t="s">
+        <v>184</v>
+      </c>
+      <c r="D34" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="E34" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="54">
+      <c r="A35" s="25"/>
+      <c r="B35" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B33" s="59"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="59"/>
-      <c r="E33" s="59"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="59"/>
-      <c r="H33" s="59"/>
-      <c r="I33" s="59"/>
-      <c r="J33" s="59"/>
-      <c r="K33" s="59"/>
-      <c r="L33" s="59"/>
-      <c r="M33" s="59"/>
-      <c r="N33" s="59"/>
-      <c r="O33" s="59"/>
-      <c r="P33" s="59"/>
-      <c r="Q33" s="59"/>
-    </row>
-    <row r="34" spans="1:17">
-      <c r="A34" s="2" t="s">
+      <c r="C35" s="63" t="s">
+        <v>185</v>
+      </c>
+      <c r="D35" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="E35" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="F35" s="24" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="36">
+      <c r="A36" s="25"/>
+      <c r="B36" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B34" s="59"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59"/>
-      <c r="E34" s="59"/>
-      <c r="F34" s="59"/>
-      <c r="G34" s="59"/>
-      <c r="H34" s="59"/>
-      <c r="I34" s="59"/>
-      <c r="J34" s="59"/>
-      <c r="K34" s="59"/>
-      <c r="L34" s="59"/>
-      <c r="M34" s="59"/>
-      <c r="N34" s="59"/>
-      <c r="O34" s="59"/>
-      <c r="P34" s="59"/>
-      <c r="Q34" s="59"/>
-    </row>
-    <row r="35" spans="1:17">
-      <c r="A35" s="2" t="s">
+      <c r="C36" s="50" t="s">
+        <v>147</v>
+      </c>
+      <c r="D36" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="E36" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="F36" s="24" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="36">
+      <c r="A37" s="25"/>
+      <c r="B37" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B35" s="60"/>
-      <c r="C35" s="60"/>
-      <c r="D35" s="60"/>
-      <c r="E35" s="60"/>
-      <c r="F35" s="60"/>
-      <c r="G35" s="60"/>
-      <c r="H35" s="60"/>
-      <c r="I35" s="60"/>
-      <c r="J35" s="60"/>
-      <c r="K35" s="60"/>
-      <c r="L35" s="60"/>
-      <c r="M35" s="60"/>
-      <c r="N35" s="60"/>
-      <c r="O35" s="60"/>
-      <c r="P35" s="60"/>
-      <c r="Q35" s="60"/>
-    </row>
-    <row r="36" spans="1:17">
-      <c r="A36" s="2" t="s">
+      <c r="C37" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="D37" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="E37" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="36">
+      <c r="A38" s="25"/>
+      <c r="B38" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B36" s="59"/>
-      <c r="C36" s="59"/>
-      <c r="D36" s="59"/>
-      <c r="E36" s="59"/>
-      <c r="F36" s="59"/>
-      <c r="G36" s="59"/>
-      <c r="H36" s="59"/>
-      <c r="I36" s="59"/>
-      <c r="J36" s="59"/>
-      <c r="K36" s="59"/>
-      <c r="L36" s="59"/>
-      <c r="M36" s="59"/>
-      <c r="N36" s="59"/>
-      <c r="O36" s="59"/>
-      <c r="P36" s="59"/>
-      <c r="Q36" s="59"/>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="A37" s="2" t="s">
+      <c r="C38" s="78" t="s">
+        <v>167</v>
+      </c>
+      <c r="D38" s="79" t="s">
+        <v>132</v>
+      </c>
+      <c r="E38" s="79" t="s">
+        <v>132</v>
+      </c>
+      <c r="F38" s="79" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="36">
+      <c r="A39" s="25"/>
+      <c r="B39" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B37" s="60"/>
-      <c r="C37" s="60"/>
-      <c r="D37" s="60"/>
-      <c r="E37" s="60"/>
-      <c r="F37" s="60"/>
-      <c r="G37" s="60"/>
-      <c r="H37" s="60"/>
-      <c r="I37" s="60"/>
-      <c r="J37" s="60"/>
-      <c r="K37" s="60"/>
-      <c r="L37" s="60"/>
-      <c r="M37" s="60"/>
-      <c r="N37" s="60"/>
-      <c r="O37" s="60"/>
-      <c r="P37" s="60"/>
-      <c r="Q37" s="60"/>
+      <c r="C39" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="D39" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="E39" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>132</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="68">
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="J36:M36"/>
-    <mergeCell ref="N36:Q36"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="J37:M37"/>
-    <mergeCell ref="N37:Q37"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="J34:M34"/>
-    <mergeCell ref="N34:Q34"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="J35:M35"/>
-    <mergeCell ref="N35:Q35"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="J33:M33"/>
-    <mergeCell ref="N33:Q33"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="J32:M32"/>
-    <mergeCell ref="N32:Q32"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:M31"/>
-    <mergeCell ref="N31:Q31"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:M29"/>
-    <mergeCell ref="N29:Q29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:M30"/>
-    <mergeCell ref="N30:Q30"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="J27:M27"/>
-    <mergeCell ref="N27:Q27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="N28:Q28"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="N25:Q25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J26:M26"/>
-    <mergeCell ref="N26:Q26"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:M23"/>
-    <mergeCell ref="N23:Q23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:M24"/>
-    <mergeCell ref="N24:Q24"/>
-    <mergeCell ref="J4:M20"/>
-    <mergeCell ref="N4:Q20"/>
-    <mergeCell ref="B2:E3"/>
-    <mergeCell ref="F2:I3"/>
-    <mergeCell ref="B4:E20"/>
-    <mergeCell ref="F4:I20"/>
-    <mergeCell ref="J2:M3"/>
-    <mergeCell ref="N2:Q3"/>
+  <mergeCells count="8">
+    <mergeCell ref="E4:E20"/>
+    <mergeCell ref="F4:F20"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="C4:C20"/>
+    <mergeCell ref="D4:D20"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
